--- a/ms/ms-customer/ms-mca-risks.xlsx
+++ b/ms/ms-customer/ms-mca-risks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leifa\Documents\ctg\sky4\ms\ms-customer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leifa\Documents\ctg\sky5\ms\ms-customer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5900146D-71DC-4106-B15F-F0531B30063B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC33AF1-336D-4F1A-9AC6-39255EE47242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33015" yWindow="240" windowWidth="22980" windowHeight="17040" xr2:uid="{B3E9BE28-B381-4183-80F0-FA8181173802}"/>
+    <workbookView xWindow="8295" yWindow="135" windowWidth="22800" windowHeight="16860" xr2:uid="{B3E9BE28-B381-4183-80F0-FA8181173802}"/>
   </bookViews>
   <sheets>
     <sheet name="Risks" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="291">
   <si>
     <t>Area</t>
   </si>
@@ -1011,6 +1011,24 @@
   </si>
   <si>
     <t>PT_GST</t>
+  </si>
+  <si>
+    <t>Sub-area</t>
+  </si>
+  <si>
+    <t>Unused</t>
+  </si>
+  <si>
+    <t>Direct Bill</t>
+  </si>
+  <si>
+    <t>Mirror</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Note</t>
   </si>
 </sst>
 </file>
@@ -1173,9 +1191,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-tema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013–2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1213,7 +1231,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013–2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1319,7 +1337,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013–2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1461,7 +1479,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1469,1722 +1487,2435 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D261C3E4-3E83-45C8-9562-3D62C9C50C7D}">
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="8" width="69.5703125" customWidth="1"/>
+    <col min="2" max="3" width="7.42578125" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="11" max="12" width="69.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D2" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5" t="s">
+      <c r="B2" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H2" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D3" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5" t="s">
+      <c r="B3" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D4" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5" t="s">
+      <c r="B4" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H4" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="K4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D5" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5" t="s">
+      <c r="B5" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H5" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="K5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="L5" s="6" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D6" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5" t="s">
+      <c r="B6" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H6" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="K6" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="L6" s="6" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D7" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5" t="s">
+      <c r="B7" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H7" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="K7" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="L7" s="6" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D8" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5" t="s">
+      <c r="B8" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H8" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="K8" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="L8" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D9" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5" t="s">
+      <c r="B9" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H9" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="K9" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="L9" s="6" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D10" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5" t="s">
+      <c r="B10" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H10" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="K10" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="L10" s="6" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="191.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D11" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5" t="s">
+      <c r="B11" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H11" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="K11" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="L11" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D12" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="5" t="s">
+      <c r="B12" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H12" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="K12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="L12" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="281.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="281.25" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D13" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="2" t="s">
+      <c r="B13" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H13" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="L13" s="6" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D14" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5" t="s">
+      <c r="B14" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H14" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="K14" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="L14" s="6" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="101.25" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D15" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="5" t="s">
+      <c r="B15" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H15" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="K15" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="L15" s="6" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D16" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="5" t="s">
+      <c r="B16" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H16" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="K16" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="L16" s="6" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D17" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="2" t="s">
+      <c r="B17" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H17" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="K17" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="L17" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="382.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="382.5" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D18" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="5" t="s">
+      <c r="B18" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H18" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="K18" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="L18" s="6" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D19" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="5" t="s">
+      <c r="B19" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H19" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="K19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="L19" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D20" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="5" t="s">
+      <c r="B20" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H20" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="K20" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="L20" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D21" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="5" t="s">
+      <c r="B21" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H21" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="K21" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="L21" s="6" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D22" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="5" t="s">
+      <c r="B22" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H22" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="K22" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="L22" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D23" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="5" t="s">
+      <c r="B23" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H23" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="K23" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="L23" s="6" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="B24" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D24" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="2" t="s">
+      <c r="B24" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H24" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="K24" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="L24" s="6" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="168.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="168.75" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="B25" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D25" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="5" t="s">
+      <c r="B25" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H25" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="K25" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="L25" s="6" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="B26" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D26" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="5" t="s">
+      <c r="B26" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H26" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I26" s="4"/>
+      <c r="J26" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="K26" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="L26" s="6" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="B27" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D27" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="5" t="s">
+      <c r="B27" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H27" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I27" s="4"/>
+      <c r="J27" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="K27" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="L27" s="6" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D28" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="5" t="s">
+      <c r="B28" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H28" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I28" s="4"/>
+      <c r="J28" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="K28" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="L28" s="6" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="B29" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D29" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="5" t="s">
+      <c r="B29" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H29" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I29" s="4"/>
+      <c r="J29" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="L29" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D30" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="5" t="s">
+      <c r="B30" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H30" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I30" s="4"/>
+      <c r="J30" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="K30" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="L30" s="6" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="B31" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D31" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="5" t="s">
+      <c r="B31" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H31" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I31" s="4"/>
+      <c r="J31" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="K31" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="L31" s="6" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="101.25" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="B32" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D32" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="5" t="s">
+      <c r="B32" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H32" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I32" s="4"/>
+      <c r="J32" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="K32" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="L32" s="6" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D33" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H33" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I33" s="4"/>
+      <c r="J33" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="K33" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="H33" s="8" t="s">
+      <c r="L33" s="8" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D34" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H34" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I34" s="4"/>
+      <c r="J34" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="K34" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="L34" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D35" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H35" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I35" s="4"/>
+      <c r="J35" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="K35" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="L35" s="5" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D36" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H36" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I36" s="4"/>
+      <c r="J36" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="K36" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="L36" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D37" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H37" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I37" s="4"/>
+      <c r="J37" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="K37" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H37" s="5" t="s">
+      <c r="L37" s="5" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="101.25" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D38" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="5" t="s">
+      <c r="F38" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H38" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I38" s="4"/>
+      <c r="J38" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="K38" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H38" s="5" t="s">
+      <c r="L38" s="5" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="D39" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D39" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E39" s="4"/>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H39" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I39" s="4"/>
+      <c r="J39" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G39" s="10" t="s">
+      <c r="K39" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H39" s="5" t="s">
+      <c r="L39" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C40" s="12"/>
+      <c r="D40" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D40" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E40" s="4"/>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H40" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I40" s="4"/>
+      <c r="J40" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="K40" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H40" s="5" t="s">
+      <c r="L40" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C41" s="12"/>
+      <c r="D41" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D41" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H41" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I41" s="4"/>
+      <c r="J41" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G41" s="8" t="s">
+      <c r="K41" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H41" s="5" t="s">
+      <c r="L41" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="D42" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D42" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E42" s="4"/>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H42" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I42" s="4"/>
+      <c r="J42" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="K42" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H42" s="5" t="s">
+      <c r="L42" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C43" s="12"/>
+      <c r="D43" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D43" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E43" s="4"/>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H43" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I43" s="4"/>
+      <c r="J43" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="K43" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H43" s="5" t="s">
+      <c r="L43" s="5" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C44" s="12"/>
+      <c r="D44" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D44" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="5" t="s">
+      <c r="F44" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H44" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I44" s="4"/>
+      <c r="J44" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G44" s="5" t="s">
+      <c r="K44" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H44" s="5" t="s">
+      <c r="L44" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C45" s="12"/>
+      <c r="D45" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D45" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E45" s="4"/>
-      <c r="F45" s="5" t="s">
+      <c r="F45" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H45" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I45" s="4"/>
+      <c r="J45" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G45" s="8" t="s">
+      <c r="K45" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="H45" s="5" t="s">
+      <c r="L45" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="168.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="168.75" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C46" s="12"/>
+      <c r="D46" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D46" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E46" s="4"/>
-      <c r="F46" s="5" t="s">
+      <c r="F46" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H46" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I46" s="4"/>
+      <c r="J46" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G46" s="10" t="s">
+      <c r="K46" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="H46" s="5" t="s">
+      <c r="L46" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C47" s="12"/>
+      <c r="D47" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D47" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E47" s="4"/>
-      <c r="F47" s="5" t="s">
+      <c r="F47" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H47" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I47" s="4"/>
+      <c r="J47" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G47" s="8" t="s">
+      <c r="K47" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="H47" s="5" t="s">
+      <c r="L47" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C48" s="12"/>
+      <c r="D48" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D48" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E48" s="4"/>
-      <c r="F48" s="5" t="s">
+      <c r="F48" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H48" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I48" s="4"/>
+      <c r="J48" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G48" s="5" t="s">
+      <c r="K48" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H48" s="5" t="s">
+      <c r="L48" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C49" s="12"/>
+      <c r="D49" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D49" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E49" s="4"/>
-      <c r="F49" s="5" t="s">
+      <c r="F49" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H49" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I49" s="4"/>
+      <c r="J49" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G49" s="5" t="s">
+      <c r="K49" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H49" s="11" t="s">
+      <c r="L49" s="11" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C50" s="12"/>
+      <c r="D50" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D50" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E50" s="4"/>
-      <c r="F50" s="5" t="s">
+      <c r="F50" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H50" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I50" s="4"/>
+      <c r="J50" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G50" s="5" t="s">
+      <c r="K50" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="H50" s="11" t="s">
+      <c r="L50" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="101.25" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C51" s="12"/>
+      <c r="D51" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D51" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E51" s="4"/>
-      <c r="F51" s="5" t="s">
+      <c r="F51" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H51" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I51" s="4"/>
+      <c r="J51" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G51" s="5" t="s">
+      <c r="K51" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H51" s="8" t="s">
+      <c r="L51" s="8" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C52" s="12"/>
+      <c r="D52" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D52" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E52" s="4"/>
-      <c r="F52" s="5" t="s">
+      <c r="F52" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H52" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I52" s="4"/>
+      <c r="J52" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G52" s="5" t="s">
+      <c r="K52" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H52" s="5" t="s">
+      <c r="L52" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C53" s="12"/>
+      <c r="D53" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D53" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E53" s="4"/>
-      <c r="F53" s="5" t="s">
+      <c r="F53" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H53" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I53" s="4"/>
+      <c r="J53" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G53" s="5" t="s">
+      <c r="K53" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="H53" s="5" t="s">
+      <c r="L53" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="247.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="247.5" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C54" s="12"/>
+      <c r="D54" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D54" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E54" s="4"/>
-      <c r="F54" s="5" t="s">
+      <c r="F54" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H54" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I54" s="4"/>
+      <c r="J54" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="G54" s="5" t="s">
+      <c r="K54" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H54" s="5" t="s">
+      <c r="L54" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C55" s="12"/>
+      <c r="D55" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D55" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E55" s="4"/>
-      <c r="F55" s="5" t="s">
+      <c r="F55" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H55" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I55" s="4"/>
+      <c r="J55" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="G55" s="5" t="s">
+      <c r="K55" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="H55" s="5" t="s">
+      <c r="L55" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="B56" s="15" t="s">
+      <c r="B56" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C56" s="12"/>
+      <c r="D56" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D56" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E56" s="4"/>
-      <c r="F56" s="5" t="s">
+      <c r="F56" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H56" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I56" s="4"/>
+      <c r="J56" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="G56" s="5" t="s">
+      <c r="K56" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H56" s="5" t="s">
+      <c r="L56" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="123.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="123.75" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C57" s="12"/>
+      <c r="D57" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D57" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E57" s="4"/>
-      <c r="F57" s="5" t="s">
+      <c r="F57" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H57" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I57" s="4"/>
+      <c r="J57" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="G57" s="5" t="s">
+      <c r="K57" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="H57" s="5" t="s">
+      <c r="L57" s="5" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="101.25" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="B58" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C58" s="12"/>
+      <c r="D58" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D58" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E58" s="4"/>
-      <c r="F58" s="5" t="s">
+      <c r="F58" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H58" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I58" s="4"/>
+      <c r="J58" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="G58" s="5" t="s">
+      <c r="K58" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="H58" s="6" t="s">
+      <c r="L58" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="B59" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C59" s="12"/>
+      <c r="D59" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D59" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E59" s="4"/>
-      <c r="F59" s="5" t="s">
+      <c r="F59" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H59" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I59" s="4"/>
+      <c r="J59" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="G59" s="5" t="s">
+      <c r="K59" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="H59" s="5" t="s">
+      <c r="L59" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="B60" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C60" s="12"/>
+      <c r="D60" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D60" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E60" s="4"/>
-      <c r="F60" s="5" t="s">
+      <c r="F60" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H60" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I60" s="4"/>
+      <c r="J60" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="G60" s="5" t="s">
+      <c r="K60" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="H60" s="5" t="s">
+      <c r="L60" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="B61" s="15" t="s">
+      <c r="B61" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C61" s="12"/>
+      <c r="D61" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D61" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E61" s="4"/>
-      <c r="F61" s="5" t="s">
+      <c r="F61" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H61" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I61" s="4"/>
+      <c r="J61" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="G61" s="5" t="s">
+      <c r="K61" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="H61" s="5" t="s">
+      <c r="L61" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="168.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="168.75" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="B62" s="15" t="s">
+      <c r="B62" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C62" s="12"/>
+      <c r="D62" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D62" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E62" s="4"/>
-      <c r="F62" s="5" t="s">
+      <c r="F62" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H62" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I62" s="4"/>
+      <c r="J62" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="G62" s="5" t="s">
+      <c r="K62" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="H62" s="5" t="s">
+      <c r="L62" s="5" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="B63" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C63" s="12"/>
+      <c r="D63" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D63" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E63" s="4"/>
-      <c r="F63" s="2" t="s">
+      <c r="F63" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H63" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I63" s="4"/>
+      <c r="J63" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G63" s="5" t="s">
+      <c r="K63" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="H63" s="5" t="s">
+      <c r="L63" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="B64" s="15" t="s">
+      <c r="B64" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C64" s="12"/>
+      <c r="D64" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D64" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E64" s="4"/>
-      <c r="F64" s="5" t="s">
+      <c r="F64" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H64" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I64" s="4"/>
+      <c r="J64" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="G64" s="5" t="s">
+      <c r="K64" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="H64" s="5" t="s">
+      <c r="L64" s="5" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="123.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="123.75" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="B65" s="15" t="s">
+      <c r="B65" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C65" s="12"/>
+      <c r="D65" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D65" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E65" s="4"/>
-      <c r="F65" s="2" t="s">
+      <c r="F65" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H65" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I65" s="4"/>
+      <c r="J65" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G65" s="5" t="s">
+      <c r="K65" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="H65" s="5" t="s">
+      <c r="L65" s="5" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="B66" s="15" t="s">
+      <c r="B66" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C66" s="12"/>
+      <c r="D66" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D66" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E66" s="4"/>
-      <c r="F66" s="5" t="s">
+      <c r="F66" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H66" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I66" s="4"/>
+      <c r="J66" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="G66" s="5" t="s">
+      <c r="K66" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="H66" s="5" t="s">
+      <c r="L66" s="5" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="B67" s="15" t="s">
+      <c r="B67" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C67" s="12"/>
+      <c r="D67" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D67" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E67" s="4"/>
-      <c r="F67" s="2" t="s">
+      <c r="F67" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H67" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I67" s="4"/>
+      <c r="J67" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="G67" s="5" t="s">
+      <c r="K67" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="H67" s="5" t="s">
+      <c r="L67" s="5" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="225" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="B68" s="15" t="s">
+      <c r="B68" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C68" s="12"/>
+      <c r="D68" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D68" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E68" s="4"/>
-      <c r="F68" s="5" t="s">
+      <c r="F68" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H68" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I68" s="4"/>
+      <c r="J68" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G68" s="5" t="s">
+      <c r="K68" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="H68" s="5" t="s">
+      <c r="L68" s="5" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="B69" s="15" t="s">
+      <c r="B69" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C69" s="12"/>
+      <c r="D69" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D69" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E69" s="4"/>
-      <c r="F69" s="2" t="s">
+      <c r="F69" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H69" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I69" s="4"/>
+      <c r="J69" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G69" s="5" t="s">
+      <c r="K69" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="H69" s="5" t="s">
+      <c r="L69" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="B70" s="15" t="s">
+      <c r="B70" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C70" s="12"/>
+      <c r="D70" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D70" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E70" s="4"/>
-      <c r="F70" s="2" t="s">
+      <c r="F70" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H70" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I70" s="4"/>
+      <c r="J70" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G70" s="5" t="s">
+      <c r="K70" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="H70" s="5" t="s">
+      <c r="L70" s="5" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="371.25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="371.25" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="B71" s="15" t="s">
+      <c r="B71" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C71" s="12"/>
+      <c r="D71" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D71" s="3">
-        <v>45029</v>
-      </c>
-      <c r="E71" s="4"/>
-      <c r="F71" s="5" t="s">
+      <c r="F71" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H71" s="3">
+        <v>45029</v>
+      </c>
+      <c r="I71" s="4"/>
+      <c r="J71" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="G71" s="5" t="s">
+      <c r="K71" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="H71" s="5" t="s">
+      <c r="L71" s="5" t="s">
         <v>282</v>
       </c>
     </row>

--- a/ms/ms-customer/ms-mca-risks.xlsx
+++ b/ms/ms-customer/ms-mca-risks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leifa\Documents\ctg\sky5\ms\ms-customer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC33AF1-336D-4F1A-9AC6-39255EE47242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A8B420-3CCC-4BA6-A061-9CBDA793F1D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8295" yWindow="135" windowWidth="22800" windowHeight="16860" xr2:uid="{B3E9BE28-B381-4183-80F0-FA8181173802}"/>
+    <workbookView xWindow="27720" yWindow="0" windowWidth="28620" windowHeight="17280" xr2:uid="{B3E9BE28-B381-4183-80F0-FA8181173802}"/>
   </bookViews>
   <sheets>
     <sheet name="Risks" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="586">
   <si>
     <t>Area</t>
   </si>
@@ -1030,12 +1030,1011 @@
   <si>
     <t>Note</t>
   </si>
+  <si>
+    <t>EA</t>
+  </si>
+  <si>
+    <t>Definitions</t>
+  </si>
+  <si>
+    <t>“Affiliate” means any legal entity that controls, is controlled by, or that is under common control with a party. “Control” means ownership of more than a 50% interest of voting securities in an entity or the power to direct the management and policies of an entity.</t>
+  </si>
+  <si>
+    <t>You may order online services for use by your affiliates. Note the ownership requirement “more than 50% interest” and assess whether this covers the entities you deem to be your affiliated companies (if you plan to let them use the online services). If not, you should try to negotiate this in the Enrollment, for instance when your share interest is 40%. 
+As you will be held responsible for any consumption (to pay) and for any affiliate breach of Microsoft terms and conditions, you should 1) have an intercompany agreement or similar with each affiliate, where these terms and conditions are mirrored and 2) require and indemnification from your affiliate if the affiliates breach leads to a claim from Microsoft. 
+Note that any Affiliate use of the Product, does not mean that Affiliate gets any rights under these terms directly towards Microsoft, such as protection for third-party infringement claims or protection for losses due to breach of GDPR, unless they enter into their own enrollment.</t>
+  </si>
+  <si>
+    <t>“Use Rights” means, with respect to any licensing program, the use rights or terms of service for each Product and version published for that licensing program at the Volume Licensing Site and updated from time to time. The Use Rights include the Product-Specific License Terms, the License Model terms, the Universal License Terms, the Data Protection Terms, and the Other Legal Terms. The Use Rights supersede the terms of any end user license agreement (on-screen or otherwise) that accompanies a Product.</t>
+  </si>
+  <si>
+    <t>Note that the way you are allowed to use the Products, are specified in the Product-specific License Terms etc. These are found in the Product Terms, in addition to the license regulations herein and in the Enterprise Agreement, Enrollment and Purchase Agreement. 
+These should be carefully reviewed, since they both may have limitations that may affect how you can use the Product, and there may be use metrics that trigger additional payment depending on your use. 
+License Model terms, Universal License Terms etc (in Product Terms) supersedes the EA agreement and its schedules.</t>
+  </si>
+  <si>
+    <t>Use, ownership, rights and restrictions.
+b. Fixes and Services Deliverables.</t>
+  </si>
+  <si>
+    <t>i. Fixes. Each Fix is licensed under the same terms as the Product to which it applies. If a Fix is not provided for a specific Product, any use rights Microsoft provides with the Fix will apply.
+iii. Services Deliverables. Upon payment in full for the Professional Services, Microsoft grants Customer a non-exclusive, non-transferable, perpetual license to reproduce, use and modify the Services Deliverables solely for Customer’s internal business purposes, subject to the terms and conditions in this agreement.
+iv. Affiliates’ rights. Customer may sublicense its rights in Services Deliverables to its Affiliates, but Customer’s Affiliates may not sublicense these rights. Customer is liable for ensuring its Affiliates’ compliance with this agreement.</t>
+  </si>
+  <si>
+    <t>New license terms may be introduced with a Fix, if it does not relate to a specific product. Make sure to review. You should also consider to agree with Microsoft that such new terms should not change the balance compared with existing license terms.
+Note that the wording implies that if Microsoft provides professional services, and for instance customizations are made, Customer does not have a right to use other third parties to adapt or modify such work later on. 
+Note</t>
+  </si>
+  <si>
+    <t>2. Use, ownership, rights and restrictions.
+d. Restrictions.</t>
+  </si>
+  <si>
+    <t>Customer must not (and is not licensed to) (1) reverse engineer, decompile or disassemble any Product, Fix, or Services Deliverable; (2) install or use non-Microsoft software or technology in any way that would subject Microsoft's intellectual property or technology to any other license terms; or (3) work around any technical limitations in a Product, Fix or Services Deliverable or restrictions in Product documentation. Except as expressly permitted in this agreement, a Supplemental Agreement or Product documentation, Customer must not (and is not licensed to) (1) separate and run parts of a Product or Fix on more than one device, upgrade or downgrade parts of a Product or Fix at different times, or transfer parts of a Product or Fix separately; or (2) distribute, sublicense, rent, lease, lend any Products, Fixes, or Services Deliverables, in whole or in part, or use them to offer hosting services to a third party.</t>
+  </si>
+  <si>
+    <t>Note the restrictions herein. Any breach of those may lead to suspension, or termination for cause if not remedied within 30 days. The restrictions are normally not breached by the “average” customer, but they should be communicated to employees and external users to ensure compliance.
+Note that you as a general rule may not share or resell the online services with third parties, except with your external users and affiliates. You may however, if you use Azure as part of a larger customer solution offering to your customers (like SaaS), see more about the Customer Solution (Hosting) exception under Product Terms below.</t>
+  </si>
+  <si>
+    <t>2. Use, ownership, rights and restrictions
+e. Reservation of rights</t>
+  </si>
+  <si>
+    <t>Products, Fixes, and Services Deliverables are protected by copyright and other intellectual property rights laws and international treaties. Microsoft reserves all rights not expressly granted in this agreement. No rights will be granted or implied by waiver or estoppel. Rights to access or use Software on a device do not give Customer any right to implement Microsoft patents or other Microsoft intellectual property in the device itself or in any other software or devices.</t>
+  </si>
+  <si>
+    <t>Note that you are only granted the Use Rights expressly agreed with Microsoft. Make therefor a thorough review of all use metrics/license terms in Product Terms and other relevant terms. For instance, verify with Microsoft whether you are free to integrate Product with third party solutions you may have.</t>
+  </si>
+  <si>
+    <t>3. Confidentiality</t>
+  </si>
+  <si>
+    <t>“Confidential Information” is non-public information that is designated “confidential” or that a reasonable person should understand is confidential, including Customer Data, Professional Services Data, and the terms of Microsoft agreements. The Online Services Terms may provide additional obligations for, and limitations on disclosure and use of, Customer Data. Confidential Information does not include information that (1) becomes publicly available without a breach of this agreement, (2) the receiving party received lawfully from another source without a confidentiality obligation, (3) is independently developed, or (4) is a comment or suggestion volunteered about the other party’s business, products or services.</t>
+  </si>
+  <si>
+    <t>Note that when you have accepted these terms through a CPS or entered into an agreement directly with MS, then you are also obligated to keep these terms confidential (for a period of 5 years after the information is received). Even though parts of the terms are available online (Product Terms), you should not disclose any details of your agreement terms, if you have negotiated price, price lock or improvement of standard terms. In case you do, Microsoft may claim damages for both direct and indirect loss, and the normal liability cap does not apply. 
+You may share the agreement with advisors etc, if such need to know to assist you, but remember to mirror these confidentiality undertakings towards your representatives.</t>
+  </si>
+  <si>
+    <t>4. Privacy and compliance with law
+a.</t>
+  </si>
+  <si>
+    <t>Customer consents to the processing of personal information by Microsoft and its agents to facilitate the subject matter of this agreement. Customer will obtain all required consents from third parties (including Customer’s contacts, resellers, distributors, administrators, and employees) under applicable privacy and data protection law before providing personal information to Microsoft.</t>
+  </si>
+  <si>
+    <t>Consent is one of several basis for processing of personal data. By using the term “required consent”, this obligation is not applicable if the customer bases the processing on one of the other alternatives. Microsoft’s Data Processing Addendum (DPA) applies by reference in addition to this clause.</t>
+  </si>
+  <si>
+    <t>4. Privacy and compliance with law
+b.</t>
+  </si>
+  <si>
+    <t>Personal information collected under this agreement (1) may be transferred, stored and processed in the United States or any other country in which Microsoft or its service providers maintain facilities and (2) will be subject to the privacy terms specified in the Use Rights. Microsoft will abide by the requirements of European Economic Area and Swiss data protection law regarding the collection, use, transfer, retention, and other processing of personal data from the European Economic Area and Switzerland.</t>
+  </si>
+  <si>
+    <t>This clause has the same effect as the clause under Data Transfer in the DPA, and will probably be interpreted to mean that you have instructed Microsoft to do such transfer. This emphasizes the importance of performing the assessments mentioned under DPA/Privacy above.</t>
+  </si>
+  <si>
+    <t>4. Privacy and compliance with law
+c.</t>
+  </si>
+  <si>
+    <t>Products, Fixes, and Services Deliverables are subject to U.S. export jurisdiction. Customer must comply with all applicable international and national laws, including the U.S. Export Administration Regulations, the International Traffic in Arms Regulations, and end-user, end use and destination restrictions by U.S. and other governments related to Microsoft products, services, and technologies.</t>
+  </si>
+  <si>
+    <t>This obligation is very important to adhere to. The consequence of breach will probably be immediate suspension of the online services and termination for cause after 30 days if not cured, as Microsoft have high focus on adhering to such rules and regulations.</t>
+  </si>
+  <si>
+    <t>5. Warranties. A. Limited warranties and remedies</t>
+  </si>
+  <si>
+    <t>i. Software. Microsoft warrants that each version of the Software will perform substantially as described in the applicable Product documentation for one year from the date Customer is first licensed for that version. If it does not, and Customer notifies Microsoft within the warranty term, then Microsoft will, at its option (1) return the price Customer paid for the Software license, or (2) repair or replace the Software.
+ii. Online Services. Microsoft warrants that each Online Service will perform in accordance with the applicable SLA during Customer’s use. Customer’s remedies for breach of this warranty are in the SLA.
+iii. Professional Services. Microsoft warrants that it will perform Professional Services with professional care and skill. If Microsoft fails to do so, and Customer notifies Microsoft within 90 days of the date the Professional Services were performed, then Microsoft will, at its discretion, either re-perform the Professional Services or return the price Customer paid for them.
+The remedies above are Customer’s sole remedies for breach of the warranties in this section. Customer waives any breach of warranty claims not made during the warranty period.</t>
+  </si>
+  <si>
+    <t>Note the limited one (1) year warranty for Software. There is no obligation for Microsoft to for instance use «all commercially reasonable efforts» to resolve or replace the affected Product (or SLA requirements to provide a fix) before Microsoft may opt to terminate and refund any prepaid fees. The termination right is absolute and does not consider the consequences for the customer, e.g., is it possible to establish an alternative service fast for the customer, or how much will it cost?
+For Online Services, this means that you cannot expect to claim damages for loss in addition to any SLA penalties set out in the SLA. The only compensation you will get is the standardized SLA penalty set out in the separate SLA document.
+For professional services, note the limited complaints period on 90 days, and that sole remedy is either that Microsoft will re-preform or may choose to return the price. For professional services, this is a rather weak warranty as long as Customer cannot require that Microsoft at least should use “all commercially reasonable efforts” to remedy, before Microsoft may opt to refund the price paid.</t>
+  </si>
+  <si>
+    <t>5. Warranties. b. Exclusions</t>
+  </si>
+  <si>
+    <t>These warranties do not apply to free, trial, pre-release, or beta products, or to components of Products that Customer is permitted to redistribute.</t>
+  </si>
+  <si>
+    <t>Note. Its unclear what «permitted to redistrubute» refers to.</t>
+  </si>
+  <si>
+    <t>6. Defence of third party claims.
+Introduction and a. By Microsoft</t>
+  </si>
+  <si>
+    <t>The parties will defend each other against the third-party claims described in this section and will pay the amount of any resulting adverse final judgment or approved settlement, but only if the defending party is promptly notified in writing of the claim and has the right to control the defense and any settlement of it. The party being defended must provide the defending party with all requested assistance, information, and authority, and must take all reasonable action to mitigate its losses arising from the third-party claim. The defending party will reimburse the other party for reasonable out-of-pocket expenses it incurs in providing assistance. This section describes the parties’ sole remedies and entire liability for such claims.
+a. By Microsoft. Microsoft will defend Customer against any third-party claim to the extent it alleges that a Product, Fix or Services Deliverable made available by Microsoft for a fee and used within the scope of the license granted (unmodified from the form provided by Microsoft and not combined with anything else) misappropriates a trade secret or directly infringes a patent, copyright, trademark or other proprietary right of a third party. If Microsoft is unable to resolve a claim of infringement under commercially reasonable terms, it may, at its option, either (1) modify or replace the Product, Fix or Services Deliverable with a functional equivalent; or (2) terminate Customer’s license and refund any prepaid license fees (less depreciation on a five-year, straight-line basis) for perpetual licenses and any amount paid for Online Services for any usage period after the termination date. Microsoft will not be liable for any claims or damages due to Customer’s continued use of a Product, Fix, or Services Deliverable after being notified to stop due to a third-party claim.</t>
+  </si>
+  <si>
+    <t>In case of third-party infringement claims, Microsoft will defend Customer and pay the amounts of any judgement or settlement. This is sole remedy. The indemnity does not extend to «free products».
+Note that the indemnity presuppose that the Products are unmodified and not used in combination with “anything else”. As many customers integrate software solutions or services, this is a fairly wide carve out. Ideally the wording should have focused on that the cause of infringement is not the “use in combination with”.
+Note that Microsoft may choose freely between modification or replacements with an alternative product, or merely just terminate the service. There is no commitment from Microsoft to use “reasonable commercial efforts” to fix the problem before they may terminate. And there is no “transitional” period where you as a customer may continue to use the Online-services until you have established an alternative solution. In case critical or important systems are hosted in Azure or similar, or you subscribe to software, this may constitute a high risk. For critical services you should have a realistic plan B to mitigate the risk with this wording.
+Note also that the indemnification only extends towards “Customer”, i.e the entity that signed. Not any Customer Affiliates (even though you are allowed to use the Online Services for the benefit of your Affiliates). This will be solved if affiliates sign their own enrollment. 
+Also – if you are a customer, using the online services to provide your own software as a service (see comments to the “Customer Solution” (Hosting) exception in the Online Service Terms), then your end customers will not get any protection from Microsoft in case of infringement cases. Depending on your jurisdiction and the risk for infringement claims, this risk needs to be assessed carefully. The risk for an end customer to be sued by a third party for breach of third-party rights when using Azure, is normally limited as the customer is not making copies (reproduction) of third party rights as such, but it may be a risk to be held liable under rules for contributory negligence (if you become aware and continue to use the Online-services).</t>
+  </si>
+  <si>
+    <t>6. Defence of third party claims.
+b. By Customer.
+From Definitions</t>
+  </si>
+  <si>
+    <t>To the extent permitted by applicable law, Customer will defend Microsoft against any third-party claim to the extent it alleges that: (1) any Customer Data or non-Microsoft software hosted in an Online Service by Microsoft on Customer's behalf misappropriates a trade secret or directly infringes a patent, copyright, trademark, or other proprietary right of a third party; or (2) Customer’s use of any Product, Fix, or Services Deliverable alone or in combination with anything else, violates the law or damages a third party.
+“Customer Data” means all data, including all text, sound, software, image or video files that are provided to Microsoft by, or on behalf of, Customer and its Affiliates through use of Online Services.</t>
+  </si>
+  <si>
+    <t>Note your obligation to indemnify Microsoft and Microsoft Affiliates (even though your affiliates do not get the same protection from Microsoft) for third party claims due to Customers Data (which include third party software you license and host in Azure) and Non-Microsoft Products (installed by Customer). Ideally you should mirror this obligation towards your suppliers, for instance your ERP contractor, CRM etc, if you host such applications in Azure.</t>
+  </si>
+  <si>
+    <t>7. Limitation of liability.
+Introduction and a. Online Services</t>
+  </si>
+  <si>
+    <t>For each Product or Professional Service, each party’s maximum, aggregate liability to the other under each Supplemental Agreement is limited to direct damages finally awarded in an amount not to exceed the amounts Customer paid for the applicable Products or Professional Services during the term of the Supplemental Agreement, subject to the following:
+a. Online Services. For Online Services, Microsoft’s maximum liability to Customer for any incident giving rise to a claim will not exceed the amount Customer paid for the Online Service during the 12 months before the incident.</t>
+  </si>
+  <si>
+    <t>Note that since breach of warranty is exhaustively regulated in the SLA for Online Services, and is limited for Professional Services, and since infringement is exhaustively regulated in the third-party claim clause above, it will normally be limited possibilities to claim damages for direct loss by the Customer. The cap is irrespectively also limited per Product, and per Supplemental Agreement and is not a general cap across all Products.
+For most breach by the Customer however, Microsoft may claim damages (within the exclusions in litra c, such as indirect loss etc). The liability cap for customer is however higher than for Microsoft as the general liability cap is linked to an amount paid over the term, while for Microsoft the cap is linked to paid amounts the last 12 months before the incident for the applicable Online Service.</t>
+  </si>
+  <si>
+    <t>7. Limitation of liability
+d. Exceptions</t>
+  </si>
+  <si>
+    <t>No limitation or exclusions will apply to liability arising out of either party’s (1) confidentiality obligations (except for all liability related to Customer Data and Professional Services Data, which will remain subject to the limitations and exclusions above); (2) defense obligations; or (3) violation of the other party’s intellectual property rights.</t>
+  </si>
+  <si>
+    <t>This means that Microsoft liability towards you as a customer in case of breach of confidentiality related to customer data, is normally limited as set out in litra a (described above). But your liability towards Microsoft is unlimited for breach of confidentiality, claims towards Microsoft due to customer data (incl. software) and breach of Microsoft IPR (for instance license restrictions as the 
+prohibition against reverse engineering, but more importantly if you share or resell the Online services with third parties, or use software in defiance with the license metrics/use limitations).</t>
+  </si>
+  <si>
+    <t>8. Verifying compliance.
+c. Remedies for non-compliance</t>
+  </si>
+  <si>
+    <t>If verification reveals any use of Products without applicable license rights, then within 30 days Customer must order sufficient licenses to cover its use. If such use or distribution is determined to be in excess of Customer’s existing licenses by 5% or more of the audited environment(s) in the aggregate, then Customer must reimburse Microsoft for the costs Microsoft incurred in obtaining the verification and acquire the necessary additional licenses. Such licenses will be obtained at 125% of the price, based on the then-current price list and applicable Customer price level. The use percentage is based on the total number of Products used without applicable license rights (as described above) compared to the total Product use. If it is verified that Product use is sufficiently licensed, Microsoft will not require Customer to engage in another verification for at least one year. By exercising the rights and procedures described above, Microsoft does not waive its rights to enforce this agreement or to protect its intellectual property by any other legal or contractual means.</t>
+  </si>
+  <si>
+    <t>Note the right of audit for Microsoft in a. and b. and the obligation to keep records of all use and distribution of the Products by Customer and its Affiliates. 
+Note also that such audit may be executed by Microsoft at any time, for instance also 1 month after you enter into the EA Agreement. Normally Customers would prefer that this happens after some time from when the agreement is effective (for instance after D365 is implemented). 
+In case of audits, note the possibility to require that Microsoft’s auditors enters into a mutual confidentiality agreement, which you normally should. You should also require an indemnification from auditor if auditor requires to use sniffing tools or similar to detect the use, where such tools may cause errors, downtime or security incidents. 
+If use of Products without applicable license rights is in excess of Customer’s licenses by 5%, licenses to cover its excess use must be ordered at a 25% price premium over list price. This should normally be negotiated to something better in the Enrollment.
+For products that are subject to True-up, this means that you will not “busted” in an audit through a year, as long as file your true-up order within the end of each agreement year.</t>
+  </si>
+  <si>
+    <t>9. Term and termination</t>
+  </si>
+  <si>
+    <t>b. Termination. Either party may terminate this MBSA on 60 days’ notice. Termination will not affect any existing orders or Supplemental Agreements, but Customer will no longer be able to enter into Supplemental Agreements after the effective date of termination.</t>
+  </si>
+  <si>
+    <t>Termination by Microsoft with 60 days’ notice is short in most situations, however the existing orders/Supplemental Agreements (Enrollments) continue for the duration of the subscription term (normally 3 years). That means that you will be able to increase consumption through the true-up mechanism during the term of such orders etc (for software). 
+See also Enterprise Agreement 5. Term and termination b. Termination without cause.</t>
+  </si>
+  <si>
+    <t>10. Miscellaneous
+a. Use of contractors</t>
+  </si>
+  <si>
+    <t>Microsoft may use contractors to perform services, but will be responsible for their performance, subject to the terms of this agreement.</t>
+  </si>
+  <si>
+    <t>10. Miscellaneous
+e. Amendments</t>
+  </si>
+  <si>
+    <t>Any amendment to this agreement must be executed by both parties, except that Microsoft may change the Product Terms and Use Rights from time to time, subject to the terms of this agreement. Any additional or conflicting terms and conditions contained in Customer’s or a Partner’s purchase order are expressly rejected and will not apply. Microsoft may require Customer to sign a new agreement or an amendment to an existing agreement before processing a new order or entering into a Supplemental Agreement.</t>
+  </si>
+  <si>
+    <t>The MBSA will remain unchanged for the subscription term as a general rule, but Microsoft reserves the right to require Customer to sign a new agreement before accepting a new order/supplemental agreement. 
+As for the Use Rights (Product Terms, SLA an DPA) these are normally be updated frequently; and may take effect before the subscription renews. See comment to Enterprise Agreement, section 2.c.</t>
+  </si>
+  <si>
+    <t>10. Miscellaneous
+g. Applicable law</t>
+  </si>
+  <si>
+    <t>The terms of each Supplemental Agreement entered into with any Microsoft Affiliate located outside of Europe will be governed by and construed in accordance with the laws of the State of Washington and federal laws of the United States. The terms of each Supplemental Agreement entered into with a Microsoft Affiliate located in Europe will be governed by and construed in accordance with the laws of Ireland. Any dispute arising out of or in relation to Professional Services will be governed by the law of the jurisdiction where the Microsoft Affiliate executing the relevant Statement of Services is organized. The 1980 United Nations Convention on Contracts for the International Sale of Goods and its related instruments will not apply to this agreement.</t>
+  </si>
+  <si>
+    <t>Within EU, the agreement is subject to Irish law.
+For professional services, governing law will the jurisdiction in the country where the Microsoft Affiliate providing the services resides.</t>
+  </si>
+  <si>
+    <t>10. Miscellaneous
+h. Dispute resolution</t>
+  </si>
+  <si>
+    <t>When bringing an action arising under this agreement, the parties agree to the following exclusive venues:
+i. If Microsoft brings the action, the venue will be where Customer’s contracting Affiliate has its headquarters;
+ii. If Customer brings the action to enforce a Statement of Services, the venue will be where the Microsoft Affiliate executing the Statement of Services has its headquarters. For all other actions, (1) If Customer brings the action against any Microsoft Affiliate located outside of Europe, the venue will be the state or federal courts in King County, State of Washington, U.S.A.; and (2) If Customer brings the action against any Microsoft Affiliate located in Europe, and not also against a Microsoft Affiliate located outside of Europe, the venue will be in Ireland.
+The parties consent to personal jurisdiction in the agreed venue. This choice of venue does not prevent either party from seeking injunctive relief in any appropriate jurisdiction with respect to a violation of intellectual property rights or confidentiality obligations.</t>
+  </si>
+  <si>
+    <t>Note that if you are sued by Microsoft, the case will be brought in before the courts in your jurisdiction. But the case is still subject to Irish law. 
+If you desire to sue Microsoft, you need to need to file in Ireland (unless the claim relates to a Microsoft entity outside of EU, then Kings County in USA is venue). 
+If the dispute related to Professional Services, vendue is in the country where the Microsoft Affiliate providing the services resides.</t>
+  </si>
+  <si>
+    <t>10. Miscellaneous
+m. Professional Services payment terms.</t>
+  </si>
+  <si>
+    <t>Customer agrees to pay all fees in a Statement of Services within 30 days of the date of invoice, unless the Statement of Services provides otherwise. Microsoft may assess a finance charge of the lesser of 18% per annum, accrued, calculated and payable monthly, or the highest amount allowed by law, on all past due amounts due to Microsoft. Microsoft will have no obligation to continue to provide Professional Services if Customer fails to make timely payment.</t>
+  </si>
+  <si>
+    <t>Note that in case of late payment for consultancy services, Microsoft may charge 18% annual interest on the amount due, and may also withhold the services without further notice.</t>
+  </si>
+  <si>
+    <t>11. Country-specific provisions.</t>
+  </si>
+  <si>
+    <t>The country-specific provisions available at the Volume Licensing Site that correspond with the version of this MBSA (as noted in the footer of each document) replace or supplement the equivalent provisions above as noted therein where the Customer is located in the countries identified in the country-specific terms and in any case where the law of the jurisdictions listed in the country-specific provisions gets applied.</t>
+  </si>
+  <si>
+    <t>Check and review if applicable.</t>
+  </si>
+  <si>
+    <t>Preamble (before the headline “Terms and Conditions”.</t>
+  </si>
+  <si>
+    <t>If Customer is a qualifying government entity, the Qualifying Government Entity Addendum is incorporated by reference.
+Please note: Documents referenced in this agreement but not attached to the signature form may be found at http://www.microsoft.com/licensing/contracts and are incorporated in this agreement by reference, including the Product Terms, Online Services Terms, and Qualifying Government Entity Addendum. These documents may contain additional terms and conditions for Products licensed under this agreement and may be changed from time to time. Customer should review such documents carefully, both at the time of signing and periodically thereafter, and fully understand all terms and conditions applicable to Products licensed and Services ordered.</t>
+  </si>
+  <si>
+    <t>The agreement consists of several documents. Note that additional terms may be applicable. Therefore, be on alert to check any such additional terms, if presented, and review carefully. 
+Government entities must review the Qualifying Government Entity Addendum, see http://www.microsoft.com/licensing/contracts</t>
+  </si>
+  <si>
+    <t>2. Licenses for Products.
+a. License Grant</t>
+  </si>
+  <si>
+    <t>Microsoft grants the Enterprise a non-exclusive, worldwide and limited right to download, install and use software Products, and to access and use the Online Services, each in the quantity ordered under an Enrollment. The rights granted are subject to the terms of this agreement, the Use Rights and the Product Terms. Microsoft reserves all rights not expressly granted in this agreement.</t>
+  </si>
+  <si>
+    <t>The right to use (obviously) presuppose that the use is within the agreed quantities specified in an Enrollment (order form). Microsoft reserves all rights not expressly granted, so as already mentioned, make sure to review the Product Terms for the Product you license og subscribe to, and ensure the applicable metrics gives you the right to use as planned.</t>
+  </si>
+  <si>
+    <t>2. Licenses for Products.
+b. Duration of licenses</t>
+  </si>
+  <si>
+    <t>Subscription Licenses and most Software Assurance rights are temporary and expire when the applicable Enrollment is terminated or expires, unless the Enrolled Affiliate exercises a buy-out option, which is available for some Subscription Licenses. Except as otherwise noted in the applicable Enrollment or Use Rights, all other Licenses become perpetual only when all payments for that License have been made and the initial Enrollment term has expired.</t>
+  </si>
+  <si>
+    <t>2. Licenses for Products.
+c. Applicable Use Rights</t>
+  </si>
+  <si>
+    <t>The latest Use Rights as updated from time to time, apply to the use of all Products, subject to the following exceptions.
+i. For Products with metered usage-based pricing (e.g., metered Microsoft Azure Services). Material adverse changes published after the start of a calendar month will apply beginning the following month.
+ii. For Versioned Software. Material adverse changes published after the date a Product is first licensed will not apply to any licenses for that Product acquired during the applicable Enrollment term unless the changes are published with the release of a new version and Customer chooses to update to that version. Renewal of Software Assurance does not change which Use Rights apply to perpetual Licenses acquired during a previous term or Enrollment.
+iii. For all other Products (e.g., Office 365 services). Material adverse changes published after the start of the subscription term will not apply to any licenses for that Product acquired during the applicable Enrollment term.
+iv. For use rights granted through Software Assurance. Material adverse changes published after the date a Product is first licensed will not apply to any licenses for that Product during the applicable enrollment term unless the changes are published with the release of a new version and Customer chooses to update to that version.</t>
+  </si>
+  <si>
+    <t>For perpetual licenses, the Use Rights in effect when Customer orders a Product will apply. If you however receive access to new versions (through software assurance), and choose to update, then such updated Use Rights (Product Terms, SLA etc) apply. Fixes to existing products do not change the license terms. 
+For subscriptions, normally the Use Rights (Product Terms, SLA and DPA) are updated by Microsoft each month. Updates do however not apply to Products already ordered (except for changes without “material adverse effect), until the subscription renews (normally after 3 years), except for metered products (Azure services) where the Use Rights renews at the end of each month, or if you start using new version of the software. 
+You should therefor make sure you store a copy of the prevailing version. Each time the subscription renews (or if you use metered products, at the start of each month), ensure to review all updates to Use Rights, to review if it affects your rights and obligations, or how products are paid. 
+If you negotiate better Use Rights with Microsoft in the Enrolment, make sure to specify that such rights cannot be diluted through updates of the Use Rights. If you are doing a large commitment, you should also try to negotiate a general principle that use rights for products already acquired, should not change in the subscription period, even if you choose to update to new versions. E.g, if you originally have free use of a product, you should not accept a limitation to for instance 100 “calls”, just because a new version is available. But if new functionality is introduced, it may in some situations be appropriate that such new functionality has use limitations (but since you pay maintenance fees as part of a subscription, you should also expect new functionality).</t>
+  </si>
+  <si>
+    <t>2. Licenses for Products.
+d. Downgrade right.</t>
+  </si>
+  <si>
+    <t>Enterprise may use an earlier version of a Product than the version that is current on the effective date of the Enrollment. For Licenses acquired in the current Enrollment term, the Use Rights for the current version apply to the use of the earlier version. If the earlier Product version includes features that are not in the new version, then the Use Rights applicable to the earlier version apply with respect to those features.</t>
+  </si>
+  <si>
+    <t>Note that when you license software/subscribe for the first time, the newest version of the Use Rights still apply even though you choose to use an older version of a Product. But if there are features in the older version that are removed in the most current version, you must check the old Use Rights documents as well, as these may have license restrictions for such features that apply.</t>
+  </si>
+  <si>
+    <t>2. Licenses for Products.
+e. New Version Rights under Software Assurance.</t>
+  </si>
+  <si>
+    <t>Enrolled Affiliate must order and maintain continuous Software Assurance coverage for each License ordered. With Software Assurance coverage, Enterprise automatically has the right to use a new version of a licensed Product as soon as it is released, even if Enterprise chooses not to use the new version immediately.</t>
+  </si>
+  <si>
+    <t>Note that Software Assurance cannot be terminated during the duration of an enrollment.</t>
+  </si>
+  <si>
+    <t>2. Licenses for Products.
+g. Acquisitions, divestitures, and mergers.</t>
+  </si>
+  <si>
+    <t>If the number of Licenses covered by an Enrollment changes by more than ten percent as a result of (1) an acquisition of an entity or an operating division, (2) a divestiture of an Affiliate or an operating division of Enrolled Affiliate or any of its Affiliates, or (3) a merger including a merger with a third party that has an existing agreement or Enrollment, Microsoft will work with Enrolled Affiliate in good faith to determine how to accommodate its changed circumstances in the context of this agreement.</t>
+  </si>
+  <si>
+    <t>Note. This means that if the use increases due to acquisition or merger, the agreement continues. 
+But when merging, where you suddenly have two agreements, Microsoft commits to negotiate a solution in good faith. The same if your volume goes down due to divesture or similar.</t>
+  </si>
+  <si>
+    <t>3. Making copies of Products and re-imaging rights, b. Copies for training/evaluation and back-up</t>
+  </si>
+  <si>
+    <t>For all Products other than Online Services, Enrolled Affiliate may (1) use up to 20 complimentary copies of any licensed Products in a dedicated training facility on its premises for purposes of training on that particular Product, (2) use up to 10 complimentary copies of any Products for a 60 day evaluation period, and (3) use one complimentary copy of any licensed Product for back-up or archival purposes for each of its distinct geographic locations. Trials for Online Services may be available if specified in the Use Rights.</t>
+  </si>
+  <si>
+    <t>Note the complimentary copies allowed for training or evaluation purposes. Meaning you do not have to buy licenses for such use. 
+Also not the right for one back-up copy of any licenses Product, which may also be done once for each geographic location.</t>
+  </si>
+  <si>
+    <t>3. Making copies of Products and re-imaging rights, c. Copies for training/evaluation and back-up</t>
+  </si>
+  <si>
+    <t>4. Transferring and assigning Licenses, a. Contractual License transfers</t>
+  </si>
+  <si>
+    <t>Customer or an Enrolled Affiliate may transfer only fully-paid perpetual Licenses under this Agreement to:
+an Affiliate, or
+a third party solely in connection with the transfer of hardware or employees to whom the Licenses have been assigned as part of (1) a divestiture of an Affiliate or a division of an Affiliate or (2) a merger involving Customer or an Affiliate.
+Upon such transfer, Customer or Enrolled Affiliate must uninstall and discontinue using the licensed Product and render any copies unusable.</t>
+  </si>
+  <si>
+    <t>Note the transferring right. Note also that case law (the Usesoft verdict) gives you the right to transfer perpetual software licenses as you please to legally acquired digital copies of software, so the transfer right is wider than it seems. This is also acknowledged by Microsoft through section c in the same clause.</t>
+  </si>
+  <si>
+    <t>5. Term and termination
+c. Termination for cause.</t>
+  </si>
+  <si>
+    <t>Without limiting any other remedies it may have, either party may terminate an Enrollment if the other party materially breaches its obligations under this agreement, including any obligation to submit orders or pay invoices. Except where the breach is by its nature not curable within 30 days, the terminating party must give the other party 30 days’ notice of its intent to terminate and an opportunity to cure the breach. If Microsoft gives such notice to an Enrolled Affiliate, Microsoft also will give Customer a copy of the notice, and Customer agrees to help resolve the breach. If the breach affects other Enrollments and cannot be resolved between Microsoft and Customer within a reasonable period of time, Microsoft may terminate this agreement and all Enrollments under it. If an Enrolled Affiliate ceases to be Customer’s Affiliate, Customer must promptly notify Microsoft, and Microsoft may terminate the former Affiliate’s Enrollment. If an Enrolled Affiliate terminates its Enrollment as a result of a breach by Microsoft, or if Microsoft terminates an Enrollment because Enrolled Affiliate ceases to be Customer’s Affiliate, then Enrolled Affiliate will have the early termination rights described in the Enrollment.</t>
+  </si>
+  <si>
+    <t>The termination for cause regulation is fairly standard, with 30 day’s notice period opportunity to cure etc. 
+Note that in case of termination for cause, the termination of Products are with immediate effect. I.e no time to plan for an alternative and move to an alternative service, if you subscribe to software/use Online Services. This risk should be assessed for each solution you use, where the license grant is not perpetual. In a worst-case scenario, it may lead to business interruption for a long time. You should have a plan B ready for business-critical solutions you only have subscriptions to. 
+Note also that in case a material breach affects other Enrollments and cannot be resolved within a reasonable period of time, Microsoft may terminate the entire agreement and all Enrollments under it, also those not affected by the breach. Affects is a low threshold and should ideally be stronger. E.g “substantially affects”. 
+There is no transitional period for an Enrolled Affiliate ceasing to be Customer’s Affiliate, unless this is negotiated into the Enrollment. For instance that the sold affiliate may continue to use for a transitional period of 6 months.</t>
+  </si>
+  <si>
+    <t>5. Term and termination.
+d. Modification or termination of an Online Service for regulatory reasons.</t>
+  </si>
+  <si>
+    <t>Microsoft may modify or terminate an Online Service in any country or jurisdiction where there is any current or future government requirement or obligation that (1) subjects Microsoft to any regulation or requirement not generally applicable to businesses operating there, (2) presents a hardship for Microsoft to continue operating the Online Service without modification, and/or (3) causes Microsoft to believe these terms or the Online Service may conflict with any such requirement or obligation.</t>
+  </si>
+  <si>
+    <t>This clause entitles Microsoft to modify, discontinue or terminate an Online-Service due to regulatory reasons, but only when the regular reasons are specifically targeting Microsoft services or similar services. The right does not apply when the regulatory regulations apply to businesses in general in a jurisdiction, so for customers in most countries this situation will probably not arise. Nor does this clause apply for software. If such situation irrespectively arise, Microsoft right to modify, discontinue or terminate the online services is absolute, and does not take into account the consequences for the customers. It gives no protection as to how fast termination may happen, and no “transitional” period where customer may continue to use until an alternative is established. For non-critical services, this is probably a risk most customers may live with as the likelihood of Microsoft misusing this right is probably small. For business-critical solutions, a thorough risk assessment should be made, and whether it’s possible to mitigate the risk (for instance through a viable plan B).</t>
+  </si>
+  <si>
+    <t>5. Term and termination.
+e. Program updates.</t>
+  </si>
+  <si>
+    <t>Microsoft may make changes to this program that will make it necessary for Customer and its Enrolled Affiliates to enter into new agreements and Enrollments at the time of an Enrollment renewal.</t>
+  </si>
+  <si>
+    <t>6. Miscellaneous.
+c. Order of precedence</t>
+  </si>
+  <si>
+    <t>In the case of a conflict between any documents in this agreement that is not expressly resolved in those documents, their terms will control in the following order, from highest to lowest priority: (1) the Master Agreement, (2) this Enterprise Agreement, (3) any Enrollment, (4) the Product Terms, (5) the Online Services Terms, (6) orders submitted under this agreement, and (7) any other documents in this agreement. Terms in an amendment control over the amended document and any prior amendments concerning the same subject matter.</t>
+  </si>
+  <si>
+    <t>Note that the Microsoft Business Service Agreement and the Enterprise Agreement take precedence over conflicting terms in other documents, such as the Enrollment, SLA, DPA etc. Contrary to the MCA, the Use Right documents (OST, DPA and Product terms) do not take precedence over the general terms.</t>
+  </si>
+  <si>
+    <t>6. Miscellaneous.
+e. Taxes. First sentence</t>
+  </si>
+  <si>
+    <t>If any amounts are to be paid to Microsoft, the amounts owed are exclusive of any taxes unless specified on the invoice as tax inclusive.</t>
+  </si>
+  <si>
+    <t>See comment to similar clause in MBSA.</t>
+  </si>
+  <si>
+    <t>Preamble</t>
+  </si>
+  <si>
+    <t>This Microsoft Enterprise Purchase Agreement (“Agreement”) is entered into between the Enrolled Affiliate and the Microsoft Sales Affiliate identified on the Program Signature Form. It establishes the terms under which Enrolled Affiliate will order Licenses for Products and Professional Services from the Microsoft Sales Affiliate. This Agreement will be effective as of the effective date of the Enrollment identified above (“Enrollment”) between the Enrolled Affiliate and the Microsoft Licensing Affiliate.
+This Agreement consists of the terms and conditions in this document, any Customer Price Sheet that refers to this Agreement, and any other purchasing documents identified on the Program Signature Form signed by Enrolled Affiliate and attached to the Enrollment.
+Enrolled Affiliate represents that it is the same entity that entered into the Enrollment.</t>
+  </si>
+  <si>
+    <t>This document is a document that will be signed by you, or separately for each of your Affiliates, with the relevant Microsoft Sales Affiliate (normally the local entity in your country). Together with the Enterprise Enrollment, which also needs to be signed, this establishes the EA agreement. 
+Note that you as a customer in fact enter into agreement with two Microsoft entities when signing the Purchase Agreement, 1) your local Microsoft Sales Affiliate and 2) the Microsoft Licensing Affiliate.</t>
+  </si>
+  <si>
+    <t>2. Ordering and Payment. a. Orders</t>
+  </si>
+  <si>
+    <t>Enrolled Affiliate will order Microsoft Products and Professional Services from Microsoft Sales Affiliate as permitted or required under the Enrollment. Prices will be reflected on the Customer Price Sheet. Microsoft Sales Affiliate has no obligations with respect to an order until Microsoft Licensing Affiliate accepts it.</t>
+  </si>
+  <si>
+    <t>Note that agreed prices shall be reflected in the «Customer Price Sheet”. So make sure to review. 
+Note also that orders placed with your local Microsoft Sales Affiliate are non-binding for the Microsoft Licensing Affiliate.</t>
+  </si>
+  <si>
+    <t>2. Ordering and Payment. b. Setting prices.</t>
+  </si>
+  <si>
+    <t>Except for Online Services designated in the Product Terms as being exempt from fixed pricing, Enrolled Affiliate’s prices for each Product ordered will be fixed throughout the applicable initial or renewal Enrollment term, provided that Enrolled Affiliate qualifies for the same price level for the entire term. Price levels and prices are reestablished at the beginning of the renewal term.</t>
+  </si>
+  <si>
+    <t>Agreed prices are as a general rule (except for online services) fixed through the enrollment term. It may change upon renewal, if you do not longer qualify for the same price level. That you during an Enrollment Term improve your qualification, does not give you a right to an improved price level, unless this is explicitly negotiated and agreed with Microsoft. For instance in the Enterprise Enrollment document. 
+The wording may also be read as a right to change the prices during an Enrollment Term as well, which should be verified with Microsoft/negotiated.</t>
+  </si>
+  <si>
+    <t>2. Ordering and prices. c. Payment Terms.</t>
+  </si>
+  <si>
+    <t>Microsoft Sales Affiliate will invoice Enrolled Affiliate for all Products and Professional Services ordered, and Enrolled Affiliate will pay the amount due to Microsoft Sales Affiliate according to the terms, payment methods and in the currency stated on Microsoft Sales Affiliate’s invoice and Customer Price Sheet.</t>
+  </si>
+  <si>
+    <t>Remember to specify and agree currency in the Customer Price Sheet, if you have any specific preferences.</t>
+  </si>
+  <si>
+    <t>2. Ordering and prices. d. Spread payment option.</t>
+  </si>
+  <si>
+    <t>d. Spread payment option. For the initial or renewal order Enrolled Affiliate may pay upfront or elect to spread its payments over the applicable Enrollment term. If spread payments are elected, unless indicated otherwise on the Customer Price Sheet, Microsoft Sales Affiliate will invoice Enrolled Affiliate in three equal annual installments. The first installment will be invoiced upon Microsoft Licensing Affiliate’s acceptance of the applicable initial or renewal order and remaining installments will be invoiced on each subsequent Enrollment anniversary date.</t>
+  </si>
+  <si>
+    <t>Remember to specify in the Enrollment whether you pay up-front or spread over the term. If you choose spread over the term, consider also if 3 installments are ok or whether you should negotiate something else.</t>
+  </si>
+  <si>
+    <t>2. Ordering and prices. e. Mid-term orders.</t>
+  </si>
+  <si>
+    <t>Mid-term orders will be invoiced upon acceptance of each order. Enrolled Affiliate may elect to pay annually or upfront for Online Services ordered mid-term but must pay upfront for all other Licenses ordered mid-term.</t>
+  </si>
+  <si>
+    <t>Note that all software must be paid up-front, when ordered mid-term. Even if you have agreed installments as a main rule.</t>
+  </si>
+  <si>
+    <t>2. Ordering and pricing. f. Reserved Licenses</t>
+  </si>
+  <si>
+    <t>Payment for a reservation order may be deferred until the next true-up order. Reserved Licenses will be invoiced retroactively to the month in which they were ordered. If Enrolled Affiliate fails to submit a true-up order or update statement in accordance with the terms of the Enrollment, Microsoft Sales Affiliate will invoice Enrolled Affiliate for all Reserved Licenses not previously ordered</t>
+  </si>
+  <si>
+    <t>2. Ordering and pricing. g. Subscription License reductions</t>
+  </si>
+  <si>
+    <t>Invoices will be adjusted to reflect any reductions in Subscription Licenses (as described in the Enrollment) at the true-up order Enrollment anniversary and effective as of such date.</t>
+  </si>
+  <si>
+    <t>2. Ordering and pricing. h. Online Services Extended Term.</t>
+  </si>
+  <si>
+    <t>For the first twelve months of an Extended Term, Online Services will be invoiced monthly at the then-current published price for Enrolled Affiliate’s price level as of the Enrollment Expiration Date plus a 3% administrative fee. As of the first day of the thirteenth month of the Extended Term, Online Services that continue until cancelled will be invoiced at the then-current published price for price level A plus a 3% administrative fee.</t>
+  </si>
+  <si>
+    <t>Note. E.g., you should not just let the agreement be extended, but you should enter into a new EA, in order to avoid such price increase, or actively cancel.</t>
+  </si>
+  <si>
+    <t>2. Ordering and pricing. i. Taxes</t>
+  </si>
+  <si>
+    <t>Amounts owed to Microsoft Sales Affiliate are exclusive of any taxes, unless specified on the invoice as tax inclusive. Enrolled Affiliate shall pay any applicable value added, goods and services, sales, gross receipts, or other transaction taxes, fees, charges or surcharges or any regulatory cost recovery surcharges or similar amounts that are owed under this Agreement and that Microsoft Sales Affiliate is permitted to collect from Enrolled Affiliate. Enrolled Affiliate shall be responsible for any applicable stamp taxes and for all other taxes that it is legally obligated to pay, including any taxes that arise on the distribution or provision of Products or Professional Services by Enrolled Affiliate to its Affiliates. Microsoft Sales Affiliate shall be responsible for payment of all taxes based on its net income, gross receipts taxes imposed in lieu of taxes on income or profits, and taxes on its property ownership.
+If any taxes are required to be withheld on payments made to Microsoft Sales Affiliate, Enrolled Affiliate may deduct such taxes from the amount owed and pay them to the appropriate taxing authority, but only if Enrolled Affiliate promptly provides Microsoft Sales Affiliate an official receipt for those withholdings and other documents reasonably requested to allow Microsoft Sales Affiliate to claim a foreign tax credit or refund. Enrolled Affiliate will ensure that any taxes withheld are minimized to the extent possible under applicable law.</t>
+  </si>
+  <si>
+    <t>Note.
+It should be investigated whether the Microsoft Sales Affiliate will invoice with VAT or not. If this is not handled correctly, there is a risk for the customer to be exposed to double VAT.</t>
+  </si>
+  <si>
+    <t>3. Termination, b. Termination</t>
+  </si>
+  <si>
+    <t>Without limiting any other remedies it may have, either party may terminate this Agreement if the other party materially breaches its obligations under this Agreement. Except where the breach is by its nature not curable within 30 days, the terminating party must give the other party 30 days’ notice of its intent to terminate and an opportunity to cure the breach. A material breach of this Agreement will be construed as a material breach of the Enrollment. In the event of termination under this provision by the Microsoft Sales Affiliate, or if the Microsoft Licensing Affiliate terminates the Enrollment for cause, all amounts due under any unpaid invoices shall become due and payable immediately. For Subscription Licenses, in the event of a breach by Microsoft, or if Microsoft terminates an Online Service for regulatory reasons, Enrolled Affiliate will receive a credit for any amount paid in advance for the period after termination.</t>
+  </si>
+  <si>
+    <t>Note that even if the agreement is terminated for cause by Microsoft, you have to pay unsettled invoices (and possible pay damages for loss of profit on Microsofts side for the remaining enrollment term. Therefore, it is very important to have control over you obligations as customer, to implement necessary routines to be compliant with the agreement, so you do not risk ending up in a termination for cause situation.</t>
+  </si>
+  <si>
+    <t>5. Warranties and Limitations of Liability</t>
+  </si>
+  <si>
+    <t>All warranties, obligations to defend against third-party claims and limitations of liability set forth in the Master Agreement (as modified by any applicable country-specific provisions) shall also apply to claims under this Agreement. Microsoft Licensing Affiliate is solely responsible for claims relating to the performance of Products and Microsoft’s defense of third-party claims (including claims of intellectual property infringement). Microsoft Sales Affiliate is not liable for such claims and, to the maximum extent permitted by applicable law, expressly disclaims all express, implied and statutory warranties and liability for such claims, including, without limitation, warranties of quality, title, non-infringement, merchantability, and fitness for a particular purpose.</t>
+  </si>
+  <si>
+    <t>Note that in case of errors or defects with the Products, you local Microsoft Sales Affiliate that bills you, will not be liable for and damages (only for disputes related to payment/metrics etc). If you have any claims, such must be directed against the Microsoft Licensing Affiliate. 
+You should ensure that the Microsoft Licensing Affiliate is located in a country near you, as you will have to file any lawsuit at such affiliates venue.</t>
+  </si>
+  <si>
+    <t>6. Miscellaneous, a. Applicable law</t>
+  </si>
+  <si>
+    <t>The terms of this Agreement will be governed by the law of the jurisdiction where the Microsoft Sales Affiliate has its headquarters at the time of entering into this Agreement. The 1980 United Nations Convention on Contracts for the International Sale of Goods and its related instruments will not apply to this Agreement.</t>
+  </si>
+  <si>
+    <t>Note. This means that if you have a dispute with the local Microsoft Sales Affiliate (for instance around billing), your venue will normally be in the country you reside as well. But if you have a dispute regarding errors and defects in the Products, the dispute will be with Microsoft in Ireland.</t>
+  </si>
+  <si>
+    <t>6. Miscellaneous, e. order of precedence</t>
+  </si>
+  <si>
+    <t>In the case of a conflict between any documents in this Agreement that is not expressly resolved in those documents, their terms will control in the following order, from highest to lowest priority: (1) this Purchase Agreement, (2) the Customer Price Sheet, (3) any other documents in this agreement. Terms in an amendment control over the amended document and any prior amendments concerning the same subject matter.</t>
+  </si>
+  <si>
+    <t>Note. The Entreprise agreement and MBSA however, takes presidence over the EA Purchase Agreement.</t>
+  </si>
+  <si>
+    <t>06.01</t>
+  </si>
+  <si>
+    <t>06.02</t>
+  </si>
+  <si>
+    <t>06.03</t>
+  </si>
+  <si>
+    <t>06.04</t>
+  </si>
+  <si>
+    <t>06.05</t>
+  </si>
+  <si>
+    <t>06.06</t>
+  </si>
+  <si>
+    <t>06.07</t>
+  </si>
+  <si>
+    <t>06.08</t>
+  </si>
+  <si>
+    <t>06.09</t>
+  </si>
+  <si>
+    <t>06.10</t>
+  </si>
+  <si>
+    <t>06.11</t>
+  </si>
+  <si>
+    <t>06.12</t>
+  </si>
+  <si>
+    <t>06.13</t>
+  </si>
+  <si>
+    <t>06.14</t>
+  </si>
+  <si>
+    <t>06.15</t>
+  </si>
+  <si>
+    <t>06.16</t>
+  </si>
+  <si>
+    <t>06.17</t>
+  </si>
+  <si>
+    <t>06.18</t>
+  </si>
+  <si>
+    <t>06.19</t>
+  </si>
+  <si>
+    <t>06.20</t>
+  </si>
+  <si>
+    <t>06.21</t>
+  </si>
+  <si>
+    <t>06.22</t>
+  </si>
+  <si>
+    <t>06.23</t>
+  </si>
+  <si>
+    <t>07.01</t>
+  </si>
+  <si>
+    <t>07.02</t>
+  </si>
+  <si>
+    <t>07.03</t>
+  </si>
+  <si>
+    <t>07.04</t>
+  </si>
+  <si>
+    <t>07.05</t>
+  </si>
+  <si>
+    <t>07.06</t>
+  </si>
+  <si>
+    <t>07.07</t>
+  </si>
+  <si>
+    <t>07.08</t>
+  </si>
+  <si>
+    <t>07.09</t>
+  </si>
+  <si>
+    <t>07.10</t>
+  </si>
+  <si>
+    <t>07.11</t>
+  </si>
+  <si>
+    <t>07.12</t>
+  </si>
+  <si>
+    <t>07.13</t>
+  </si>
+  <si>
+    <t>07.14</t>
+  </si>
+  <si>
+    <t>07.15</t>
+  </si>
+  <si>
+    <t>08.01</t>
+  </si>
+  <si>
+    <t>08.02</t>
+  </si>
+  <si>
+    <t>08.03</t>
+  </si>
+  <si>
+    <t>08.04</t>
+  </si>
+  <si>
+    <t>08.05</t>
+  </si>
+  <si>
+    <t>08.06</t>
+  </si>
+  <si>
+    <t>08.07</t>
+  </si>
+  <si>
+    <t>08.08</t>
+  </si>
+  <si>
+    <t>08.09</t>
+  </si>
+  <si>
+    <t>08.10</t>
+  </si>
+  <si>
+    <t>08.11</t>
+  </si>
+  <si>
+    <t>08.12</t>
+  </si>
+  <si>
+    <t>08.13</t>
+  </si>
+  <si>
+    <t>08.14</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>BSA</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>EPA</t>
+  </si>
+  <si>
+    <t>Preamble, Term</t>
+  </si>
+  <si>
+    <t>The initial term of this Enrollment will expire on the last day of the month, 36 full calendar months from the effective date of the initial term. The renewal term will expire 36 full calendar months after the effective date of the renewal term. Any reference in this Enrollment to “day” will be a calendar day.</t>
+  </si>
+  <si>
+    <t>Note that the Enrollment will have a 36 month duration, and another 36 months renewal term.</t>
+  </si>
+  <si>
+    <t>Terms and Conditions, 1. Definitions, “Enterprise Product”</t>
+  </si>
+  <si>
+    <t>“Enterprise Product” means any Desktop Platform Product that Microsoft designates as an Enterprise Product in the Product Terms and chosen by Enrolled Affiliate under this Enrollment. Enterprise Products must be licensed for all Qualified Devices and Qualified Users on an Enterprise-wide basis under this program.</t>
+  </si>
+  <si>
+    <t>Terms and Conditions, 2. Order requirements, a. minimum order requirements</t>
+  </si>
+  <si>
+    <t>Enrolled Affiliate’s Enterprise must have a minimum of 500 Qualified Users or Qualified Devices. The initial order must include at least 500 Licenses in a single Product pool for Enterprise Products or Enterprise Online Services.</t>
+  </si>
+  <si>
+    <t>Note that you need at least 500 Qualified Users (persons in your organization using a qualified device or that accesses any server software requiring an Enterprise Product Client Access License)) or Qualified Devices (a PC or similar device running Windows Pro, or a device accessing a virtual desktop)</t>
+  </si>
+  <si>
+    <t>Terms and Conditions, 2. Order requirements, minimum order requirements, i. enterprise commitment</t>
+  </si>
+  <si>
+    <t>Enrolled Affiliate must order enough Licenses from the Product pool for each Enterprise Product ordered to cover all Qualified Users and/or all Qualified Devices. Enrolled Affiliate may elect to mix Enterprise Products and Enterprise Online Services within a Product pool as long as all Qualified Devices not covered by a License are only used by users covered with a user License.</t>
+  </si>
+  <si>
+    <t>Note that licenses must cover all Qualified users and/or Qualified Devices.</t>
+  </si>
+  <si>
+    <t>2. Order requirements, minimum order requirements, b. Additional Products</t>
+  </si>
+  <si>
+    <t>May order Additional Products and Services upon satisfying the minimum order requirements</t>
+  </si>
+  <si>
+    <t>When you qualify for an EA agreement, you do not only get the right to order additional products, Online Services may contain additional minimum purchasing requirements, for example Microsoft Power Platform. This should be checked.</t>
+  </si>
+  <si>
+    <t>2. Order requirements, minimum order requirements, Use Right for Enterprise Products</t>
+  </si>
+  <si>
+    <t>For Enterprise Products, if a new Product version has more restrictive use rights than the version that is current at the start of the applicable initial or renewal term of the Enrollment, those more restrictive use rights will not apply to Enrolled Affiliate’s use of that Product during that term.</t>
+  </si>
+  <si>
+    <t>Note. Since this conflicts with MBSA pkt 2.b, 1, this should be checked with Microsoft.</t>
+  </si>
+  <si>
+    <t>Terms and Conditions, 2. Order requirements, d. country of usage</t>
+  </si>
+  <si>
+    <t>Enrolled Affiliate must specify the countries where Licenses will be used on its initial order and on any additional orders.</t>
+  </si>
+  <si>
+    <t>Remember to specify country of use in the signature form.</t>
+  </si>
+  <si>
+    <t>Terms and Conditions, 2. Order requirements, e. Microsoft Sales Affiliate</t>
+  </si>
+  <si>
+    <t>Microsoft Sales Affiliate does not have authority to bind or impose any obligation or liability on the Microsoft Affiliate that enters into this Enrollment.</t>
+  </si>
+  <si>
+    <t>Note. So if you are able to negotiate changes to the MBSA or PA, this should be signed by the relevant Microsoft Affiliate, and not the Sales Affiliate.</t>
+  </si>
+  <si>
+    <t>Terms and Conditions, 2. Order requirements, g. Adding licenses for previously ordered Products</t>
+  </si>
+  <si>
+    <t>Additional Licenses for previously ordered Products other than Online Services may be added at any time but must be included in the next true-up order. Additional Licenses for Online Services must be ordered prior to use unless the Online Services are (1) identified as eligible for true-up in the Product Terms or (2) included as part of other Licenses.</t>
+  </si>
+  <si>
+    <t>If you want to start using Products not ordered before, you always have to place an order. But for Products already ordered, you may add licenses at any time without an additional order, as long as you include such additional use in the next true-up order. Note that this does not apply of Online-services, unless true-up is allowed in the Product Terms for the applicable Online Service or included as a part of other licenses.</t>
+  </si>
+  <si>
+    <t>Terms and Conditions, 2. Order requirements, h. True-up requirements (i-iii)</t>
+  </si>
+  <si>
+    <t>Enrolled Affiliate must submit an annual true-up order that accounts for changes since the initial order or last order. If there are no changes, then an update statement must be submitted instead of a true-up order.
+(i) For Enterprise Products, Enrolled Affiliate must determine the number of Qualified Devices and Qualified Users (if ordering user-based Licenses) at the time the true-up order is placed and must order additional Licenses for all Qualified Devices and Qualified Users that are not already covered by existing Licenses, including any Enterprise Online Services.
+(ii) For Additional Products that have been previously ordered under this Enrollment, Enrolled Affiliate must determine the maximum number of Additional Products used since the latter of the initial order, the last true-up order, or the prior anniversary date and submit a true-up order that accounts for any increase.
+(iii) For Online Services identified as eligible for true-up in the Product Terms, Enrolled Affiliate may place a reservation order for the additional Licenses prior to use.</t>
+  </si>
+  <si>
+    <t>So the true-up mechanism allows you to start paying for increased use through an agreement year, first when you perform the true-up. Meaning this gives you flexibility to adjust up and down through an agreement year. 
+But when you perform the true-up, this increased level cannot be adjusted down again, unless you have pre-agreed a right to do so with the Microsoft Affiliate. A limited right to do so, follows from 2 h. below. 
+When submitting the annual true-up, you must report the number of Qualified Devices and Qualified Users at the time of the true-up order.
+For additional products that have been previously order, Enrolled Affiliate must determine the maximum number of the latter of three different dates. 
+If Online Services is not eligible for a true-up in the Product Terms, the Enterprise Purchase Agreement 2. E. mid-term orders – regulates order and payment 
+For example Github offerings.</t>
+  </si>
+  <si>
+    <t>Terms and Conditions, 2. Order requirements, h. True-up requirements, (iv) subscription license reductions</t>
+  </si>
+  <si>
+    <t>Enrolled Affiliate may reduce the quantity of Subscription Licenses at the Enrollment anniversary date on a prospective basis if permitted in the Product Term
+1. For Subscription Licenses that are part of an Enterprise-wide purchase, Licenses may be reduced if the total quantity of Licenses and Software Assurance for an applicable group meets or exceeds the quantity of Qualified Devices or Qualified Users (if ordering user-based Licenses) identified on the Product Selection Form, and includes any additional Qualified Devices and Qualified Users added in any prior true-up orders. Step-up Licenses and add-on Subscription Licenses do not count towards this total count.
+2. For Enterprise Online Services in a given Product pool that are not a part of an Enterprise-wide purchase, Licenses can be reduced as long as the initial order minimum requirements are maintained.
+3. For Additional Products available as Subscription Licenses, Enrolled Affiliate may reduce the Licenses. If the License count is reduced to zero, then Enrolled Affiliate’s use of the applicable Subscription License will be cancelled.
+Invoices will be adjusted to reflect any reductions in Subscription Licenses at the true-up order Enrollment anniversary date and effective as of such date.</t>
+  </si>
+  <si>
+    <t>There is a limited possibility to reduce the number of licenses at the enrollment anniversary date if the total quantity exceeds the quantity agreed in the Production Selection Form, and if permitted in the Product Terms for the individual Product. This should be checked for your ordered Products, and if you need additional flexibility, this should be negotiated and agreed with Microsoft. 
+Additional products may be reduced to zero.
+Note also that if you qualify for license reductions, but you do not send the true-up order/update statement in time, then you lose the right to reduce until the next anniversary.</t>
+  </si>
+  <si>
+    <t>Terms and Conditions, 2. Order requirements, h. True-up requirements, (v) Update statement</t>
+  </si>
+  <si>
+    <t>An update statement must be submitted instead of a true-up order if, since the initial order or last true-up order, Enrolled Affiliate’s Enterprise has not: (1) changed the number of Qualified Devices and Qualified Users licensed with Enterprise Products or Enterprise Online Services, and (2) increased its usage of Additional Products. This update statement must be signed by Enrolled Affiliate’s authorized representative.</t>
+  </si>
+  <si>
+    <t>Note that if you do not have any increased use/do a true-up, you must confirm this in a signed statement to Microsoft.</t>
+  </si>
+  <si>
+    <t>Terms and Conditions, 2. Order requirements, h. True-up requirements, (vi) True-up order period</t>
+  </si>
+  <si>
+    <t>The true-up order or update statement must be received by Microsoft between 60 and 30 days prior to each Enrollment anniversary date. The third-year true-up order or update statement is due within 30 days prior to the Expiration Date, and any license reservations within this 30 day period will not be accepted. Enrolled Affiliate may submit true-up orders more often to account for increases in Product usage, but an annual true-up order or update statement must still be submitted during the annual order period.</t>
+  </si>
+  <si>
+    <t>Note the deadline for providing the true-up order / update statement. 
+The consequence of not meeting the deadline, is to pay increased prices, with retroactive effect, as set out in the verification clause 8 in MBSA, if Microsoft detects excessive use in an audit.</t>
+  </si>
+  <si>
+    <t>Terms and Conditions, 2. Order requirements, h. True-up requirements, (vii) Late True-up order</t>
+  </si>
+  <si>
+    <t>If the true-up order or update statement is not received when due, Subscription License reductions cannot be reported until the following Enrollment anniversary date (or at Enrollment renewal, as applicable).</t>
+  </si>
+  <si>
+    <t>Remember to meet the deadline, or you loose the right for reduction until the following Enrollment anniversary date-</t>
+  </si>
+  <si>
+    <t>Terms and Conditions, 2. Order requirements, i. Step-up licenses</t>
+  </si>
+  <si>
+    <t>For Licenses eligible for a step-up under this Enrollment, Enrolled Affiliate may step-up to a higher edition or suite as follows: 
+For step-up Licenses included on an initial order, Enrolled Affiliate may order according to the true-up process.
+If step-up Licenses are not included on an initial order, Enrolled Affiliate may step-up initially by following the process described in the Section titled “Adding new Products not previously ordered,” then for additional step-up Licenses, by following the true-up order process.</t>
+  </si>
+  <si>
+    <t>E.g step-up of Licenses (example…) already ordered, may be done at any time, as long as it is included in the true-up process. This also mean that you within an agreement year may step-up and down again, without having to place a true-up order. 
+Step-up for new licenses, must be ordered withing the same month as you start using this.</t>
+  </si>
+  <si>
+    <t>Terms and Conditions, 3. Pricing</t>
+  </si>
+  <si>
+    <t>Each Product is assigned to a Product pool as shown in the Product Terms. Price levels (A, B, C or D) are set separately for each pool. Price levels for the applicable Product pools are set forth in the Product Selection Form. Price levels are reestablished at the beginning of the renewal term. If Enrolled Affiliate qualifies for a different price level during the applicable initial or renewal term, Microsoft may at its discretion establish a new price level for future new orders either upon Enrolled Affiliate’s request or on its own initiative. Any changes will be based upon price level rules in the Product Selection Form.</t>
+  </si>
+  <si>
+    <t>Note. This means that price levels are fixed during the initial subscription term, and may be changed upon renewal. 
+If it changes within a subscription term, there is no automatic application of such new price level, but its Microsoft that decides. If you want more security for adjustment (to a better price level), this should probably be negotiated and agreed with Microsoft.</t>
+  </si>
+  <si>
+    <t>Terms and Conditions, 5. End of Enrollment term and termination, a. General</t>
+  </si>
+  <si>
+    <t>At the Expiration Date, Enrolled Affiliate must immediately order and pay for Licenses for Products it has used but has not previously submitted an order, except as otherwise provided in this Enrollment.</t>
+  </si>
+  <si>
+    <t>Note. This underlines the importance of sending a true-up order in time. If you don’t, you have to pay for the number of products actually used, and not the number at the time of expiration/the true-up order is sent.</t>
+  </si>
+  <si>
+    <t>Terms and Conditions, 5. End of Enrollment term and termination, b. renewal option</t>
+  </si>
+  <si>
+    <t>At the Expiration Date of the initial term, Enrolled Affiliate can renew Products and Services by renewing this Enrollment for one additional 36 month term or by signing a new Enrollment. Microsoft must receive a Renewal Form, Product Selection Form, and renewal order prior to or at the Expiration Date. Microsoft will not unreasonably reject any renewal. Microsoft may make changes to this program that will make it necessary for Customer and its Enrolled Affiliates to enter into new agreements and Enrollments at renewal.</t>
+  </si>
+  <si>
+    <t>Note that renewal after 36 months, presuppose an active renewal by signing a renewal form etc. This must be done within the expiration date. Microsoft may still reject the renewal, including introduce new agreement terms. If you want a stronger commitment, this should probably be negotiated and agreed with Microsoft.</t>
+  </si>
+  <si>
+    <t>Terms and Conditions, 5. End of Enrollment term and termination, c. If Enrolled Affiliate elects not to renew, i. Software Assurance</t>
+  </si>
+  <si>
+    <t>If Enrolled Affiliate elects not to renew Software Assurance for any Product under its Enrollment, then Enrolled Affiliate will not be permitted to order Software Assurance later without first acquiring a new License with Software Assurance.</t>
+  </si>
+  <si>
+    <t>Note the consequence of not renewing SA.</t>
+  </si>
+  <si>
+    <t>Terms and Conditions, 5. End of Enrollment term and termination, c. If Enrolled Affiliate elects not to renew, ii. Online Services eligible for an Extended Term</t>
+  </si>
+  <si>
+    <t>For Online Services identified as eligible for an Extended Term in the Product Terms, the following options are available at the end of the Enrollment initial or renewal term.
+If Enrolled Affiliate does not renew prior to the Expiration Date, access to the Online Services will automatically continue month-to-month in accordance with the terms of the Enrollment (“Extended Term”) for up to one year unless designated in the Product Terms to continue until cancelled. Pricing for Online Services during the Extended Term is established by Microsoft Sales Affiliate and subject to 3% administrative fee. If Enrolled Affiliate does not want an Extended Term, Enrolled Affiliate must submit a request to Microsoft at least 30 days prior to the Expiration Date.
+At any time during the first year of the Extended Term, Enrolled Affiliate may terminate the Extended Term by submitting a notice of cancellation to Microsoft for each Online Service. Thereafter, either party may terminate the Extended Term by providing the other with a notice of cancellation for each Online Service. Cancellation will be effective at the end of the month following 30 days after Microsoft has received or issued the notice.</t>
+  </si>
+  <si>
+    <t>Note that even if you choose not to renew after 36 months, or even after the renewal term, your access to Online Services will continue for online service eligible to an Extended Term, unless you actively send a request to Microsoft at least 30 days prior to the Expiration Date. This is important to remember for online services, as your consumption will continue.
+Review Product term to assess if the Online Services is eligible for an Extended Term
+If you continue (e.g do not actively cancel), you pay the prices established by your Microsoft Sales Affiliate + 3%. Meaning this could be expensive to forget.</t>
+  </si>
+  <si>
+    <t>Terms and Conditions, 5. End of Enrollment term and termination iii. Subscription Licenses and Online Services without an Extended Term</t>
+  </si>
+  <si>
+    <t>If Enrolled Affiliate elects not to renew, the Licenses will be cancelled and will terminate as of the Expiration Date. Any associated media must be uninstalled and destroyed and Enrolled Affiliate’s Enterprise must discontinue use. Microsoft may request written certification to verify compliance.</t>
+  </si>
+  <si>
+    <t>For software you subscribe to, you must upon termination uninstall and destroy any media, and discontinue the use.</t>
+  </si>
+  <si>
+    <t>Terms and Conditions, 5. End of Enrollment term and termination, e Early termination</t>
+  </si>
+  <si>
+    <t>If an Enrolled Affiliate terminates its Enrollment as a result of a breach by Microsoft, or if Microsoft terminates this Enrollment because Enrolled Affiliate has ceased to be Customer’s Affiliate, then Enrolled Affiliate will have the following options for Licenses, excluding Subscription Licenses:
+i. It may immediately pay the total remaining amount due, including all installments, in which case, Enrolled Affiliate will have perpetual rights for all Licenses it has ordered (for the latest version of Products ordered under Software Assurance coverage in an initial or renewal term), or
+ii. It may pay only amounts due as of the termination date, in which case Enrolled Affiliate will have perpetual Licenses (for the latest version of Products ordered under Software Assurance coverage in an initial or renewal term) for (1) all copies of Products for which payment has been made in full, and (2) a proportional number of copies of Products it has ordered for which payment has been made.</t>
+  </si>
+  <si>
+    <t>Enrollment Details, 1. Contact information</t>
+  </si>
+  <si>
+    <t>By providing contact information, Enrolled Affiliate consents to its use for purposes of administering this Enrollment by Microsoft, its Affiliates, and other parties that help administer this Enrollment. The personal information provided in connection with this Enrollment will be used and protected in accordance with the privacy statement available at https://www.microsoft.com/licensing/servicecenter.</t>
+  </si>
+  <si>
+    <t>Microsoft will probably be the Controller of such personal Data. This should be verified by Microsoft, and you must ensure that you have the necessary basis for disclosing such personal information. Furthermore, you must ensure that Microsoft enters into a SCC module Controller to Controller to the extent Microsoft must transfer such personal information to locations outside EU and that you are performing necessary assessments, see Data/Privacy above. This seems not to be covered by the DPA.</t>
+  </si>
+  <si>
+    <t>09.01</t>
+  </si>
+  <si>
+    <t>09.02</t>
+  </si>
+  <si>
+    <t>09.03</t>
+  </si>
+  <si>
+    <t>09.04</t>
+  </si>
+  <si>
+    <t>09.05</t>
+  </si>
+  <si>
+    <t>09.06</t>
+  </si>
+  <si>
+    <t>09.07</t>
+  </si>
+  <si>
+    <t>09.08</t>
+  </si>
+  <si>
+    <t>09.09</t>
+  </si>
+  <si>
+    <t>09.10</t>
+  </si>
+  <si>
+    <t>09.11</t>
+  </si>
+  <si>
+    <t>09.12</t>
+  </si>
+  <si>
+    <t>09.13</t>
+  </si>
+  <si>
+    <t>09.14</t>
+  </si>
+  <si>
+    <t>09.15</t>
+  </si>
+  <si>
+    <t>09.16</t>
+  </si>
+  <si>
+    <t>09.17</t>
+  </si>
+  <si>
+    <t>09.18</t>
+  </si>
+  <si>
+    <t>09.19</t>
+  </si>
+  <si>
+    <t>09.20</t>
+  </si>
+  <si>
+    <t>09.21</t>
+  </si>
+  <si>
+    <t>09.22</t>
+  </si>
+  <si>
+    <t>09.23</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1093,6 +2092,54 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color rgb="FF1155CC"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1114,7 +2161,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1122,11 +2169,86 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1172,6 +2294,48 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1487,10 +2651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D261C3E4-3E83-45C8-9562-3D62C9C50C7D}">
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:L146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="E146" sqref="E146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3885,7 +5049,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="371.25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="372" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="12" t="s">
         <v>195</v>
       </c>
@@ -3919,9 +5083,2557 @@
         <v>282</v>
       </c>
     </row>
+    <row r="72" spans="1:12" ht="147" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="F72" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G72" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H72" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I72" s="18"/>
+      <c r="J72" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="K72" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="L72" s="19" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="F73" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G73" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H73" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I73" s="18"/>
+      <c r="J73" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="K73" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="L73" s="21" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="124.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="F74" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G74" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H74" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I74" s="18"/>
+      <c r="J74" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="K74" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="L74" s="21" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="B75" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C75" s="16"/>
+      <c r="D75" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="F75" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G75" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H75" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I75" s="18"/>
+      <c r="J75" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="K75" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="L75" s="21" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="B76" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="F76" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G76" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H76" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I76" s="18"/>
+      <c r="J76" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="K76" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="L76" s="21" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="102" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="B77" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="F77" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G77" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H77" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I77" s="18"/>
+      <c r="J77" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="K77" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="L77" s="21" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="B78" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E78" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="F78" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G78" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H78" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I78" s="18"/>
+      <c r="J78" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="K78" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="L78" s="21" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="B79" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C79" s="16"/>
+      <c r="D79" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E79" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="F79" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G79" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H79" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I79" s="18"/>
+      <c r="J79" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="K79" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="L79" s="21" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E80" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="F80" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G80" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H80" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I80" s="18"/>
+      <c r="J80" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="K80" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="L80" s="21" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="158.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="B81" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C81" s="16"/>
+      <c r="D81" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E81" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="F81" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G81" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H81" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I81" s="18"/>
+      <c r="J81" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="K81" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="L81" s="21" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="B82" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E82" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="F82" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G82" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H82" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I82" s="18"/>
+      <c r="J82" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="K82" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="L82" s="21" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="327" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="B83" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E83" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="F83" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G83" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H83" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I83" s="18"/>
+      <c r="J83" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="K83" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="L83" s="21" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="158.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="B84" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C84" s="16"/>
+      <c r="D84" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E84" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="F84" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G84" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H84" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I84" s="18"/>
+      <c r="J84" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="K84" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="L84" s="21" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="B85" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C85" s="16"/>
+      <c r="D85" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E85" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="F85" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G85" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H85" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I85" s="18"/>
+      <c r="J85" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="K85" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="L85" s="21" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="B86" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C86" s="16"/>
+      <c r="D86" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E86" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="F86" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G86" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H86" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I86" s="18"/>
+      <c r="J86" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="K86" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="L86" s="21" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="203.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="B87" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C87" s="16"/>
+      <c r="D87" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E87" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="F87" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G87" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H87" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I87" s="18"/>
+      <c r="J87" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="K87" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="L87" s="21" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="B88" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C88" s="16"/>
+      <c r="D88" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E88" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="F88" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G88" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H88" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I88" s="18"/>
+      <c r="J88" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="K88" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="L88" s="21" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="B89" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C89" s="16"/>
+      <c r="D89" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E89" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="F89" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G89" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H89" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I89" s="18"/>
+      <c r="J89" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="K89" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="L89" s="21" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="B90" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C90" s="16"/>
+      <c r="D90" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E90" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="F90" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G90" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H90" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I90" s="18"/>
+      <c r="J90" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="K90" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="L90" s="21" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="B91" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C91" s="16"/>
+      <c r="D91" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E91" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="F91" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G91" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H91" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I91" s="18"/>
+      <c r="J91" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="K91" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="L91" s="21" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="147" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="B92" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C92" s="16"/>
+      <c r="D92" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E92" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="F92" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G92" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H92" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I92" s="18"/>
+      <c r="J92" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="K92" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="L92" s="21" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="B93" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C93" s="16"/>
+      <c r="D93" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E93" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="F93" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G93" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H93" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I93" s="18"/>
+      <c r="J93" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="K93" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="L93" s="21" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="B94" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C94" s="16"/>
+      <c r="D94" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E94" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="F94" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G94" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H94" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I94" s="18"/>
+      <c r="J94" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="K94" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="L94" s="21" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="B95" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C95" s="16"/>
+      <c r="D95" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E95" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="F95" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G95" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H95" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I95" s="18"/>
+      <c r="J95" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="K95" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="L95" s="24" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="B96" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C96" s="16"/>
+      <c r="D96" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E96" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="F96" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G96" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H96" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I96" s="18"/>
+      <c r="J96" s="21" t="s">
+        <v>362</v>
+      </c>
+      <c r="K96" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="L96" s="21" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="B97" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C97" s="16"/>
+      <c r="D97" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E97" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="F97" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G97" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H97" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I97" s="18"/>
+      <c r="J97" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="K97" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="L97" s="21" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="259.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="B98" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C98" s="16"/>
+      <c r="D98" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E98" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="F98" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G98" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H98" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I98" s="18"/>
+      <c r="J98" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="K98" s="23" t="s">
+        <v>368</v>
+      </c>
+      <c r="L98" s="21" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="B99" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C99" s="16"/>
+      <c r="D99" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E99" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="F99" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G99" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H99" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I99" s="18"/>
+      <c r="J99" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="K99" s="22" t="s">
+        <v>371</v>
+      </c>
+      <c r="L99" s="21" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="B100" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C100" s="16"/>
+      <c r="D100" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E100" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="F100" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G100" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H100" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I100" s="18"/>
+      <c r="J100" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="K100" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="L100" s="21" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="B101" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C101" s="16"/>
+      <c r="D101" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E101" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="F101" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G101" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H101" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I101" s="18"/>
+      <c r="J101" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="K101" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="L101" s="21" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="B102" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C102" s="16"/>
+      <c r="D102" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E102" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="F102" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G102" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H102" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I102" s="18"/>
+      <c r="J102" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="K102" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="L102" s="21" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="B103" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C103" s="16"/>
+      <c r="D103" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E103" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="F103" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G103" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H103" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I103" s="18"/>
+      <c r="J103" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="K103" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="L103" s="21"/>
+    </row>
+    <row r="104" spans="1:12" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="B104" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C104" s="16"/>
+      <c r="D104" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E104" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="F104" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G104" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H104" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I104" s="18"/>
+      <c r="J104" s="21" t="s">
+        <v>383</v>
+      </c>
+      <c r="K104" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="L104" s="21" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="203.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="B105" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C105" s="16"/>
+      <c r="D105" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E105" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="F105" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G105" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H105" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I105" s="18"/>
+      <c r="J105" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="K105" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="L105" s="21" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="B106" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C106" s="16"/>
+      <c r="D106" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E106" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="F106" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G106" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H106" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I106" s="18"/>
+      <c r="J106" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="K106" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="L106" s="21" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="B107" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C107" s="16"/>
+      <c r="D107" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E107" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="F107" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G107" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H107" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I107" s="18"/>
+      <c r="J107" s="21" t="s">
+        <v>392</v>
+      </c>
+      <c r="K107" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="L107" s="21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="B108" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C108" s="16"/>
+      <c r="D108" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E108" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="F108" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G108" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H108" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I108" s="18"/>
+      <c r="J108" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="K108" s="22" t="s">
+        <v>395</v>
+      </c>
+      <c r="L108" s="21" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="B109" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C109" s="16"/>
+      <c r="D109" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E109" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="F109" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G109" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H109" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I109" s="18"/>
+      <c r="J109" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="K109" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="L109" s="21" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="124.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="B110" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C110" s="16"/>
+      <c r="D110" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E110" s="16" t="s">
+        <v>495</v>
+      </c>
+      <c r="F110" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G110" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H110" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I110" s="18"/>
+      <c r="J110" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="K110" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="L110" s="21" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="25" t="s">
+        <v>479</v>
+      </c>
+      <c r="B111" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C111" s="16"/>
+      <c r="D111" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E111" s="16" t="s">
+        <v>495</v>
+      </c>
+      <c r="F111" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G111" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H111" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I111" s="18"/>
+      <c r="J111" s="21" t="s">
+        <v>403</v>
+      </c>
+      <c r="K111" s="22" t="s">
+        <v>404</v>
+      </c>
+      <c r="L111" s="21" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="25" t="s">
+        <v>480</v>
+      </c>
+      <c r="B112" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C112" s="16"/>
+      <c r="D112" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E112" s="16" t="s">
+        <v>495</v>
+      </c>
+      <c r="F112" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G112" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H112" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I112" s="18"/>
+      <c r="J112" s="21" t="s">
+        <v>406</v>
+      </c>
+      <c r="K112" s="22" t="s">
+        <v>407</v>
+      </c>
+      <c r="L112" s="21" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="25" t="s">
+        <v>481</v>
+      </c>
+      <c r="B113" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C113" s="16"/>
+      <c r="D113" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E113" s="16" t="s">
+        <v>495</v>
+      </c>
+      <c r="F113" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G113" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H113" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I113" s="18"/>
+      <c r="J113" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="K113" s="22" t="s">
+        <v>410</v>
+      </c>
+      <c r="L113" s="21" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="25" t="s">
+        <v>482</v>
+      </c>
+      <c r="B114" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C114" s="16"/>
+      <c r="D114" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E114" s="16" t="s">
+        <v>495</v>
+      </c>
+      <c r="F114" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G114" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H114" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I114" s="18"/>
+      <c r="J114" s="21" t="s">
+        <v>412</v>
+      </c>
+      <c r="K114" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="L114" s="21" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="25" t="s">
+        <v>483</v>
+      </c>
+      <c r="B115" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C115" s="16"/>
+      <c r="D115" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E115" s="16" t="s">
+        <v>495</v>
+      </c>
+      <c r="F115" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G115" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H115" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I115" s="18"/>
+      <c r="J115" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="K115" s="22" t="s">
+        <v>416</v>
+      </c>
+      <c r="L115" s="21" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="25" t="s">
+        <v>484</v>
+      </c>
+      <c r="B116" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C116" s="16"/>
+      <c r="D116" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E116" s="16" t="s">
+        <v>495</v>
+      </c>
+      <c r="F116" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G116" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H116" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I116" s="18"/>
+      <c r="J116" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="K116" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="L116" s="21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="25" t="s">
+        <v>485</v>
+      </c>
+      <c r="B117" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C117" s="16"/>
+      <c r="D117" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E117" s="16" t="s">
+        <v>495</v>
+      </c>
+      <c r="F117" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G117" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H117" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I117" s="18"/>
+      <c r="J117" s="21" t="s">
+        <v>420</v>
+      </c>
+      <c r="K117" s="22" t="s">
+        <v>421</v>
+      </c>
+      <c r="L117" s="21" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="25" t="s">
+        <v>486</v>
+      </c>
+      <c r="B118" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C118" s="16"/>
+      <c r="D118" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E118" s="16" t="s">
+        <v>495</v>
+      </c>
+      <c r="F118" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G118" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H118" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I118" s="18"/>
+      <c r="J118" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="K118" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="L118" s="21" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="169.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="25" t="s">
+        <v>487</v>
+      </c>
+      <c r="B119" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C119" s="16"/>
+      <c r="D119" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E119" s="16" t="s">
+        <v>495</v>
+      </c>
+      <c r="F119" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G119" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H119" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I119" s="18"/>
+      <c r="J119" s="21" t="s">
+        <v>425</v>
+      </c>
+      <c r="K119" s="22" t="s">
+        <v>426</v>
+      </c>
+      <c r="L119" s="21" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="25" t="s">
+        <v>488</v>
+      </c>
+      <c r="B120" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C120" s="16"/>
+      <c r="D120" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E120" s="16" t="s">
+        <v>495</v>
+      </c>
+      <c r="F120" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G120" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H120" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I120" s="18"/>
+      <c r="J120" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="K120" s="21" t="s">
+        <v>429</v>
+      </c>
+      <c r="L120" s="21" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="25" t="s">
+        <v>489</v>
+      </c>
+      <c r="B121" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C121" s="16"/>
+      <c r="D121" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E121" s="16" t="s">
+        <v>495</v>
+      </c>
+      <c r="F121" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G121" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H121" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I121" s="18"/>
+      <c r="J121" s="21" t="s">
+        <v>431</v>
+      </c>
+      <c r="K121" s="22" t="s">
+        <v>432</v>
+      </c>
+      <c r="L121" s="21" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="25" t="s">
+        <v>490</v>
+      </c>
+      <c r="B122" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C122" s="16"/>
+      <c r="D122" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E122" s="16" t="s">
+        <v>495</v>
+      </c>
+      <c r="F122" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G122" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H122" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I122" s="18"/>
+      <c r="J122" s="21" t="s">
+        <v>434</v>
+      </c>
+      <c r="K122" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="L122" s="21" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="25" t="s">
+        <v>491</v>
+      </c>
+      <c r="B123" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C123" s="16"/>
+      <c r="D123" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E123" s="16" t="s">
+        <v>495</v>
+      </c>
+      <c r="F123" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G123" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H123" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I123" s="18"/>
+      <c r="J123" s="21" t="s">
+        <v>437</v>
+      </c>
+      <c r="K123" s="22" t="s">
+        <v>438</v>
+      </c>
+      <c r="L123" s="21" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="25" t="s">
+        <v>563</v>
+      </c>
+      <c r="B124" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C124" s="16"/>
+      <c r="D124" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E124" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="F124" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G124" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H124" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I124" s="18"/>
+      <c r="J124" s="26" t="s">
+        <v>496</v>
+      </c>
+      <c r="K124" s="20" t="s">
+        <v>497</v>
+      </c>
+      <c r="L124" s="19" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="25" t="s">
+        <v>564</v>
+      </c>
+      <c r="B125" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C125" s="16"/>
+      <c r="D125" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E125" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="F125" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G125" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H125" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I125" s="18"/>
+      <c r="J125" s="27" t="s">
+        <v>499</v>
+      </c>
+      <c r="K125" s="22" t="s">
+        <v>500</v>
+      </c>
+      <c r="L125" s="21" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="25" t="s">
+        <v>565</v>
+      </c>
+      <c r="B126" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C126" s="16"/>
+      <c r="D126" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E126" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="F126" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G126" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H126" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I126" s="18"/>
+      <c r="J126" s="27" t="s">
+        <v>501</v>
+      </c>
+      <c r="K126" s="22" t="s">
+        <v>502</v>
+      </c>
+      <c r="L126" s="28" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="25" t="s">
+        <v>566</v>
+      </c>
+      <c r="B127" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C127" s="16"/>
+      <c r="D127" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E127" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="F127" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G127" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H127" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I127" s="18"/>
+      <c r="J127" s="27" t="s">
+        <v>504</v>
+      </c>
+      <c r="K127" s="22" t="s">
+        <v>505</v>
+      </c>
+      <c r="L127" s="21" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="25" t="s">
+        <v>567</v>
+      </c>
+      <c r="B128" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C128" s="16"/>
+      <c r="D128" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E128" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="F128" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G128" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H128" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I128" s="18"/>
+      <c r="J128" s="27" t="s">
+        <v>507</v>
+      </c>
+      <c r="K128" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="L128" s="28" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="25" t="s">
+        <v>568</v>
+      </c>
+      <c r="B129" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C129" s="16"/>
+      <c r="D129" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E129" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="F129" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G129" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H129" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I129" s="18"/>
+      <c r="J129" s="27" t="s">
+        <v>510</v>
+      </c>
+      <c r="K129" s="22" t="s">
+        <v>511</v>
+      </c>
+      <c r="L129" s="21" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="25" t="s">
+        <v>569</v>
+      </c>
+      <c r="B130" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C130" s="16"/>
+      <c r="D130" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E130" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="F130" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G130" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H130" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I130" s="18"/>
+      <c r="J130" s="27" t="s">
+        <v>513</v>
+      </c>
+      <c r="K130" s="22" t="s">
+        <v>514</v>
+      </c>
+      <c r="L130" s="21" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="25" t="s">
+        <v>570</v>
+      </c>
+      <c r="B131" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C131" s="16"/>
+      <c r="D131" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E131" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="F131" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G131" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H131" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I131" s="18"/>
+      <c r="J131" s="27" t="s">
+        <v>516</v>
+      </c>
+      <c r="K131" s="22" t="s">
+        <v>517</v>
+      </c>
+      <c r="L131" s="28" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="25" t="s">
+        <v>571</v>
+      </c>
+      <c r="B132" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C132" s="16"/>
+      <c r="D132" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E132" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="F132" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G132" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H132" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I132" s="18"/>
+      <c r="J132" s="27" t="s">
+        <v>519</v>
+      </c>
+      <c r="K132" s="22" t="s">
+        <v>520</v>
+      </c>
+      <c r="L132" s="28" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" ht="158.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="25" t="s">
+        <v>572</v>
+      </c>
+      <c r="B133" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C133" s="16"/>
+      <c r="D133" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E133" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="F133" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G133" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H133" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I133" s="18"/>
+      <c r="J133" s="27" t="s">
+        <v>522</v>
+      </c>
+      <c r="K133" s="22" t="s">
+        <v>523</v>
+      </c>
+      <c r="L133" s="28" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="25" t="s">
+        <v>573</v>
+      </c>
+      <c r="B134" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C134" s="16"/>
+      <c r="D134" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E134" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="F134" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G134" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H134" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I134" s="18"/>
+      <c r="J134" s="27" t="s">
+        <v>525</v>
+      </c>
+      <c r="K134" s="22" t="s">
+        <v>526</v>
+      </c>
+      <c r="L134" s="28" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="25" t="s">
+        <v>574</v>
+      </c>
+      <c r="B135" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C135" s="16"/>
+      <c r="D135" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E135" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="F135" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G135" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H135" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I135" s="18"/>
+      <c r="J135" s="27" t="s">
+        <v>528</v>
+      </c>
+      <c r="K135" s="22" t="s">
+        <v>529</v>
+      </c>
+      <c r="L135" s="21" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="25" t="s">
+        <v>575</v>
+      </c>
+      <c r="B136" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C136" s="16"/>
+      <c r="D136" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E136" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="F136" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G136" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H136" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I136" s="18"/>
+      <c r="J136" s="27" t="s">
+        <v>531</v>
+      </c>
+      <c r="K136" s="22" t="s">
+        <v>532</v>
+      </c>
+      <c r="L136" s="28" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="25" t="s">
+        <v>576</v>
+      </c>
+      <c r="B137" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C137" s="16"/>
+      <c r="D137" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E137" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="F137" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G137" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H137" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I137" s="18"/>
+      <c r="J137" s="27" t="s">
+        <v>534</v>
+      </c>
+      <c r="K137" s="22" t="s">
+        <v>535</v>
+      </c>
+      <c r="L137" s="21" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="25" t="s">
+        <v>577</v>
+      </c>
+      <c r="B138" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C138" s="16"/>
+      <c r="D138" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E138" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="F138" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G138" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H138" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I138" s="18"/>
+      <c r="J138" s="27" t="s">
+        <v>537</v>
+      </c>
+      <c r="K138" s="22" t="s">
+        <v>538</v>
+      </c>
+      <c r="L138" s="28" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="25" t="s">
+        <v>578</v>
+      </c>
+      <c r="B139" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C139" s="16"/>
+      <c r="D139" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E139" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="F139" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G139" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H139" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I139" s="18"/>
+      <c r="J139" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="K139" s="22" t="s">
+        <v>541</v>
+      </c>
+      <c r="L139" s="28" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="25" t="s">
+        <v>579</v>
+      </c>
+      <c r="B140" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C140" s="16"/>
+      <c r="D140" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E140" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="F140" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G140" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H140" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I140" s="18"/>
+      <c r="J140" s="27" t="s">
+        <v>543</v>
+      </c>
+      <c r="K140" s="23" t="s">
+        <v>544</v>
+      </c>
+      <c r="L140" s="28" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="B141" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C141" s="16"/>
+      <c r="D141" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E141" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="F141" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G141" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H141" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I141" s="18"/>
+      <c r="J141" s="27" t="s">
+        <v>546</v>
+      </c>
+      <c r="K141" s="22" t="s">
+        <v>547</v>
+      </c>
+      <c r="L141" s="28" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="25" t="s">
+        <v>581</v>
+      </c>
+      <c r="B142" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C142" s="16"/>
+      <c r="D142" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E142" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="F142" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G142" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H142" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I142" s="18"/>
+      <c r="J142" s="27" t="s">
+        <v>549</v>
+      </c>
+      <c r="K142" s="22" t="s">
+        <v>550</v>
+      </c>
+      <c r="L142" s="21" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" ht="147" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="25" t="s">
+        <v>582</v>
+      </c>
+      <c r="B143" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C143" s="16"/>
+      <c r="D143" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E143" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="F143" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G143" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H143" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I143" s="18"/>
+      <c r="J143" s="27" t="s">
+        <v>552</v>
+      </c>
+      <c r="K143" s="22" t="s">
+        <v>553</v>
+      </c>
+      <c r="L143" s="28" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="25" t="s">
+        <v>583</v>
+      </c>
+      <c r="B144" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C144" s="16"/>
+      <c r="D144" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E144" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="F144" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G144" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H144" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I144" s="18"/>
+      <c r="J144" s="27" t="s">
+        <v>555</v>
+      </c>
+      <c r="K144" s="22" t="s">
+        <v>556</v>
+      </c>
+      <c r="L144" s="21" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="25" t="s">
+        <v>584</v>
+      </c>
+      <c r="B145" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C145" s="16"/>
+      <c r="D145" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E145" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="F145" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G145" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H145" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I145" s="18"/>
+      <c r="J145" s="27" t="s">
+        <v>558</v>
+      </c>
+      <c r="K145" s="22" t="s">
+        <v>559</v>
+      </c>
+      <c r="L145" s="21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="25" t="s">
+        <v>585</v>
+      </c>
+      <c r="B146" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C146" s="16"/>
+      <c r="D146" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E146" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="F146" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G146" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H146" s="17">
+        <v>45424</v>
+      </c>
+      <c r="I146" s="18"/>
+      <c r="J146" s="27" t="s">
+        <v>560</v>
+      </c>
+      <c r="K146" s="29" t="s">
+        <v>561</v>
+      </c>
+      <c r="L146" s="28" t="s">
+        <v>562</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ms/ms-customer/ms-mca-risks.xlsx
+++ b/ms/ms-customer/ms-mca-risks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leifa\Documents\ctg\sky5\ms\ms-customer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A8B420-3CCC-4BA6-A061-9CBDA793F1D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA71E5B-7921-48E9-AF7C-39F87BEB1264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27720" yWindow="0" windowWidth="28620" windowHeight="17280" xr2:uid="{B3E9BE28-B381-4183-80F0-FA8181173802}"/>
+    <workbookView xWindow="28995" yWindow="2370" windowWidth="28515" windowHeight="12645" xr2:uid="{B3E9BE28-B381-4183-80F0-FA8181173802}"/>
   </bookViews>
   <sheets>
     <sheet name="Risks" sheetId="2" r:id="rId1"/>
@@ -1013,9 +1013,6 @@
     <t>PT_GST</t>
   </si>
   <si>
-    <t>Sub-area</t>
-  </si>
-  <si>
     <t>Unused</t>
   </si>
   <si>
@@ -2028,6 +2025,9 @@
   </si>
   <si>
     <t>09.23</t>
+  </si>
+  <si>
+    <t>Category</t>
   </si>
 </sst>
 </file>
@@ -2355,9 +2355,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013–2022">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2395,7 +2395,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013–2022">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2501,7 +2501,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013–2022">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2653,11 +2653,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D261C3E4-3E83-45C8-9562-3D62C9C50C7D}">
   <dimension ref="A1:L146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="E146" sqref="E146"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="7.42578125" customWidth="1"/>
@@ -2670,19 +2670,19 @@
         <v>125</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>585</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>287</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>288</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
@@ -2708,7 +2708,7 @@
         <v>126</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="14" t="s">
@@ -2718,7 +2718,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>124</v>
@@ -2742,7 +2742,7 @@
         <v>127</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="14" t="s">
@@ -2752,7 +2752,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>124</v>
@@ -2776,7 +2776,7 @@
         <v>128</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="14" t="s">
@@ -2786,7 +2786,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>124</v>
@@ -2810,7 +2810,7 @@
         <v>129</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="14" t="s">
@@ -2820,7 +2820,7 @@
         <v>6</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>124</v>
@@ -2844,7 +2844,7 @@
         <v>130</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="14" t="s">
@@ -2854,7 +2854,7 @@
         <v>6</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>124</v>
@@ -2878,7 +2878,7 @@
         <v>131</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="14" t="s">
@@ -2888,7 +2888,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>124</v>
@@ -2912,7 +2912,7 @@
         <v>132</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="14" t="s">
@@ -2922,7 +2922,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>124</v>
@@ -2946,7 +2946,7 @@
         <v>133</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="14" t="s">
@@ -2956,7 +2956,7 @@
         <v>6</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>124</v>
@@ -2980,7 +2980,7 @@
         <v>134</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="14" t="s">
@@ -2990,7 +2990,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>124</v>
@@ -3014,7 +3014,7 @@
         <v>135</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="14" t="s">
@@ -3024,7 +3024,7 @@
         <v>6</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>124</v>
@@ -3048,7 +3048,7 @@
         <v>136</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="14" t="s">
@@ -3058,7 +3058,7 @@
         <v>6</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>124</v>
@@ -3082,7 +3082,7 @@
         <v>137</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="14" t="s">
@@ -3092,7 +3092,7 @@
         <v>6</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>124</v>
@@ -3116,7 +3116,7 @@
         <v>138</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="14" t="s">
@@ -3126,7 +3126,7 @@
         <v>6</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>124</v>
@@ -3150,7 +3150,7 @@
         <v>139</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="14" t="s">
@@ -3160,7 +3160,7 @@
         <v>6</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>124</v>
@@ -3184,7 +3184,7 @@
         <v>140</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="14" t="s">
@@ -3194,7 +3194,7 @@
         <v>6</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>124</v>
@@ -3213,12 +3213,12 @@
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="101.25" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>141</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="14" t="s">
@@ -3228,7 +3228,7 @@
         <v>6</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>124</v>
@@ -3252,7 +3252,7 @@
         <v>142</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="14" t="s">
@@ -3262,7 +3262,7 @@
         <v>6</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>124</v>
@@ -3286,7 +3286,7 @@
         <v>143</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="14" t="s">
@@ -3296,7 +3296,7 @@
         <v>6</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>124</v>
@@ -3320,7 +3320,7 @@
         <v>144</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="14" t="s">
@@ -3330,7 +3330,7 @@
         <v>6</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>124</v>
@@ -3354,7 +3354,7 @@
         <v>145</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="14" t="s">
@@ -3364,7 +3364,7 @@
         <v>6</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>124</v>
@@ -3388,7 +3388,7 @@
         <v>146</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="14" t="s">
@@ -3398,7 +3398,7 @@
         <v>6</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>124</v>
@@ -3422,7 +3422,7 @@
         <v>147</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="14" t="s">
@@ -3432,7 +3432,7 @@
         <v>6</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>124</v>
@@ -3456,7 +3456,7 @@
         <v>148</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="14" t="s">
@@ -3466,7 +3466,7 @@
         <v>6</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>124</v>
@@ -3490,7 +3490,7 @@
         <v>149</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="14" t="s">
@@ -3500,7 +3500,7 @@
         <v>6</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>124</v>
@@ -3524,7 +3524,7 @@
         <v>150</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="14" t="s">
@@ -3534,7 +3534,7 @@
         <v>6</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>124</v>
@@ -3558,7 +3558,7 @@
         <v>151</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="14" t="s">
@@ -3568,7 +3568,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>124</v>
@@ -3592,7 +3592,7 @@
         <v>152</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="14" t="s">
@@ -3602,7 +3602,7 @@
         <v>6</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>124</v>
@@ -3626,7 +3626,7 @@
         <v>153</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="14" t="s">
@@ -3636,7 +3636,7 @@
         <v>6</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>124</v>
@@ -3660,7 +3660,7 @@
         <v>154</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="14" t="s">
@@ -3670,7 +3670,7 @@
         <v>6</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>124</v>
@@ -3694,7 +3694,7 @@
         <v>155</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C31" s="12"/>
       <c r="D31" s="14" t="s">
@@ -3704,7 +3704,7 @@
         <v>6</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>124</v>
@@ -3728,7 +3728,7 @@
         <v>156</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="14" t="s">
@@ -3738,7 +3738,7 @@
         <v>6</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>124</v>
@@ -3762,7 +3762,7 @@
         <v>157</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C33" s="12"/>
       <c r="D33" s="14" t="s">
@@ -3772,7 +3772,7 @@
         <v>283</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>124</v>
@@ -3796,7 +3796,7 @@
         <v>158</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="14" t="s">
@@ -3806,7 +3806,7 @@
         <v>283</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>124</v>
@@ -3830,7 +3830,7 @@
         <v>159</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="14" t="s">
@@ -3840,7 +3840,7 @@
         <v>283</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>124</v>
@@ -3864,7 +3864,7 @@
         <v>160</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="14" t="s">
@@ -3874,7 +3874,7 @@
         <v>283</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>124</v>
@@ -3898,7 +3898,7 @@
         <v>161</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C37" s="12"/>
       <c r="D37" s="14" t="s">
@@ -3908,7 +3908,7 @@
         <v>283</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>124</v>
@@ -3932,7 +3932,7 @@
         <v>162</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="14" t="s">
@@ -3942,7 +3942,7 @@
         <v>283</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>124</v>
@@ -3966,7 +3966,7 @@
         <v>163</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C39" s="12"/>
       <c r="D39" s="14" t="s">
@@ -3976,7 +3976,7 @@
         <v>283</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>124</v>
@@ -4000,7 +4000,7 @@
         <v>164</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C40" s="12"/>
       <c r="D40" s="14" t="s">
@@ -4010,7 +4010,7 @@
         <v>283</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>124</v>
@@ -4034,7 +4034,7 @@
         <v>165</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C41" s="12"/>
       <c r="D41" s="14" t="s">
@@ -4044,7 +4044,7 @@
         <v>283</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>124</v>
@@ -4068,7 +4068,7 @@
         <v>166</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C42" s="12"/>
       <c r="D42" s="14" t="s">
@@ -4078,7 +4078,7 @@
         <v>283</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>124</v>
@@ -4102,7 +4102,7 @@
         <v>167</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C43" s="12"/>
       <c r="D43" s="14" t="s">
@@ -4112,7 +4112,7 @@
         <v>283</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>124</v>
@@ -4136,7 +4136,7 @@
         <v>168</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C44" s="12"/>
       <c r="D44" s="14" t="s">
@@ -4146,7 +4146,7 @@
         <v>283</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>124</v>
@@ -4170,7 +4170,7 @@
         <v>169</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C45" s="12"/>
       <c r="D45" s="14" t="s">
@@ -4180,7 +4180,7 @@
         <v>283</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>124</v>
@@ -4204,7 +4204,7 @@
         <v>170</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C46" s="12"/>
       <c r="D46" s="14" t="s">
@@ -4214,7 +4214,7 @@
         <v>283</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>124</v>
@@ -4238,7 +4238,7 @@
         <v>171</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C47" s="12"/>
       <c r="D47" s="14" t="s">
@@ -4248,7 +4248,7 @@
         <v>283</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>124</v>
@@ -4272,7 +4272,7 @@
         <v>172</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C48" s="12"/>
       <c r="D48" s="14" t="s">
@@ -4282,7 +4282,7 @@
         <v>284</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>124</v>
@@ -4306,7 +4306,7 @@
         <v>173</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C49" s="12"/>
       <c r="D49" s="14" t="s">
@@ -4316,7 +4316,7 @@
         <v>284</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>124</v>
@@ -4340,7 +4340,7 @@
         <v>174</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C50" s="12"/>
       <c r="D50" s="14" t="s">
@@ -4350,7 +4350,7 @@
         <v>284</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>124</v>
@@ -4374,7 +4374,7 @@
         <v>175</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C51" s="12"/>
       <c r="D51" s="14" t="s">
@@ -4384,7 +4384,7 @@
         <v>81</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>124</v>
@@ -4408,7 +4408,7 @@
         <v>176</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C52" s="12"/>
       <c r="D52" s="14" t="s">
@@ -4418,7 +4418,7 @@
         <v>81</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>124</v>
@@ -4442,7 +4442,7 @@
         <v>177</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C53" s="12"/>
       <c r="D53" s="14" t="s">
@@ -4452,7 +4452,7 @@
         <v>81</v>
       </c>
       <c r="F53" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>124</v>
@@ -4476,7 +4476,7 @@
         <v>178</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C54" s="12"/>
       <c r="D54" s="14" t="s">
@@ -4486,7 +4486,7 @@
         <v>81</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>124</v>
@@ -4510,7 +4510,7 @@
         <v>179</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C55" s="12"/>
       <c r="D55" s="14" t="s">
@@ -4520,7 +4520,7 @@
         <v>81</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>124</v>
@@ -4544,7 +4544,7 @@
         <v>180</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C56" s="12"/>
       <c r="D56" s="14" t="s">
@@ -4554,7 +4554,7 @@
         <v>81</v>
       </c>
       <c r="F56" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>124</v>
@@ -4578,7 +4578,7 @@
         <v>181</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C57" s="12"/>
       <c r="D57" s="14" t="s">
@@ -4588,7 +4588,7 @@
         <v>81</v>
       </c>
       <c r="F57" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>124</v>
@@ -4612,7 +4612,7 @@
         <v>182</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C58" s="12"/>
       <c r="D58" s="14" t="s">
@@ -4622,7 +4622,7 @@
         <v>81</v>
       </c>
       <c r="F58" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>124</v>
@@ -4646,7 +4646,7 @@
         <v>183</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C59" s="12"/>
       <c r="D59" s="14" t="s">
@@ -4656,7 +4656,7 @@
         <v>81</v>
       </c>
       <c r="F59" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>124</v>
@@ -4680,7 +4680,7 @@
         <v>184</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C60" s="12"/>
       <c r="D60" s="14" t="s">
@@ -4690,7 +4690,7 @@
         <v>81</v>
       </c>
       <c r="F60" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>124</v>
@@ -4714,7 +4714,7 @@
         <v>185</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C61" s="12"/>
       <c r="D61" s="14" t="s">
@@ -4724,7 +4724,7 @@
         <v>81</v>
       </c>
       <c r="F61" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>124</v>
@@ -4748,7 +4748,7 @@
         <v>186</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C62" s="12"/>
       <c r="D62" s="14" t="s">
@@ -4758,7 +4758,7 @@
         <v>81</v>
       </c>
       <c r="F62" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>124</v>
@@ -4782,7 +4782,7 @@
         <v>187</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C63" s="12"/>
       <c r="D63" s="14" t="s">
@@ -4792,7 +4792,7 @@
         <v>107</v>
       </c>
       <c r="F63" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>124</v>
@@ -4816,7 +4816,7 @@
         <v>188</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C64" s="12"/>
       <c r="D64" s="14" t="s">
@@ -4826,7 +4826,7 @@
         <v>107</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>124</v>
@@ -4850,7 +4850,7 @@
         <v>189</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C65" s="12"/>
       <c r="D65" s="14" t="s">
@@ -4860,7 +4860,7 @@
         <v>107</v>
       </c>
       <c r="F65" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>124</v>
@@ -4884,7 +4884,7 @@
         <v>190</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C66" s="12"/>
       <c r="D66" s="14" t="s">
@@ -4894,7 +4894,7 @@
         <v>107</v>
       </c>
       <c r="F66" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>124</v>
@@ -4918,7 +4918,7 @@
         <v>191</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C67" s="12"/>
       <c r="D67" s="14" t="s">
@@ -4928,7 +4928,7 @@
         <v>107</v>
       </c>
       <c r="F67" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>124</v>
@@ -4952,7 +4952,7 @@
         <v>192</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C68" s="12"/>
       <c r="D68" s="14" t="s">
@@ -4962,7 +4962,7 @@
         <v>107</v>
       </c>
       <c r="F68" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>124</v>
@@ -4986,7 +4986,7 @@
         <v>193</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C69" s="12"/>
       <c r="D69" s="14" t="s">
@@ -4996,7 +4996,7 @@
         <v>107</v>
       </c>
       <c r="F69" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>124</v>
@@ -5020,7 +5020,7 @@
         <v>194</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C70" s="12"/>
       <c r="D70" s="14" t="s">
@@ -5030,7 +5030,7 @@
         <v>107</v>
       </c>
       <c r="F70" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>124</v>
@@ -5054,7 +5054,7 @@
         <v>195</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C71" s="12"/>
       <c r="D71" s="14" t="s">
@@ -5064,7 +5064,7 @@
         <v>107</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>124</v>
@@ -5085,20 +5085,20 @@
     </row>
     <row r="72" spans="1:12" ht="147" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="12" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C72" s="16"/>
       <c r="D72" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F72" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G72" s="16" t="s">
         <v>124</v>
@@ -5108,31 +5108,31 @@
       </c>
       <c r="I72" s="18"/>
       <c r="J72" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="K72" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="K72" s="20" t="s">
+      <c r="L72" s="19" t="s">
         <v>293</v>
-      </c>
-      <c r="L72" s="19" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="12" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C73" s="16"/>
       <c r="D73" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F73" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G73" s="16" t="s">
         <v>124</v>
@@ -5142,31 +5142,31 @@
       </c>
       <c r="I73" s="18"/>
       <c r="J73" s="21" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K73" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="L73" s="21" t="s">
         <v>295</v>
-      </c>
-      <c r="L73" s="21" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="124.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="12" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C74" s="16"/>
       <c r="D74" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F74" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G74" s="16" t="s">
         <v>124</v>
@@ -5176,31 +5176,31 @@
       </c>
       <c r="I74" s="18"/>
       <c r="J74" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="K74" s="22" t="s">
         <v>297</v>
       </c>
-      <c r="K74" s="22" t="s">
+      <c r="L74" s="21" t="s">
         <v>298</v>
-      </c>
-      <c r="L74" s="21" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C75" s="16"/>
       <c r="D75" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G75" s="16" t="s">
         <v>124</v>
@@ -5210,31 +5210,31 @@
       </c>
       <c r="I75" s="18"/>
       <c r="J75" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="K75" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="K75" s="22" t="s">
+      <c r="L75" s="21" t="s">
         <v>301</v>
-      </c>
-      <c r="L75" s="21" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C76" s="16"/>
       <c r="D76" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F76" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G76" s="16" t="s">
         <v>124</v>
@@ -5244,31 +5244,31 @@
       </c>
       <c r="I76" s="18"/>
       <c r="J76" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="K76" s="22" t="s">
         <v>303</v>
       </c>
-      <c r="K76" s="22" t="s">
+      <c r="L76" s="21" t="s">
         <v>304</v>
-      </c>
-      <c r="L76" s="21" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="102" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C77" s="16"/>
       <c r="D77" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F77" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G77" s="16" t="s">
         <v>124</v>
@@ -5278,31 +5278,31 @@
       </c>
       <c r="I77" s="18"/>
       <c r="J77" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="K77" s="22" t="s">
         <v>306</v>
       </c>
-      <c r="K77" s="22" t="s">
+      <c r="L77" s="21" t="s">
         <v>307</v>
-      </c>
-      <c r="L77" s="21" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C78" s="16"/>
       <c r="D78" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F78" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G78" s="16" t="s">
         <v>124</v>
@@ -5312,31 +5312,31 @@
       </c>
       <c r="I78" s="18"/>
       <c r="J78" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="K78" s="23" t="s">
         <v>309</v>
       </c>
-      <c r="K78" s="23" t="s">
+      <c r="L78" s="21" t="s">
         <v>310</v>
-      </c>
-      <c r="L78" s="21" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="12" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C79" s="16"/>
       <c r="D79" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F79" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G79" s="16" t="s">
         <v>124</v>
@@ -5346,31 +5346,31 @@
       </c>
       <c r="I79" s="18"/>
       <c r="J79" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="K79" s="22" t="s">
         <v>312</v>
       </c>
-      <c r="K79" s="22" t="s">
+      <c r="L79" s="21" t="s">
         <v>313</v>
-      </c>
-      <c r="L79" s="21" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="12" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C80" s="16"/>
       <c r="D80" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F80" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G80" s="16" t="s">
         <v>124</v>
@@ -5380,31 +5380,31 @@
       </c>
       <c r="I80" s="18"/>
       <c r="J80" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="K80" s="22" t="s">
         <v>315</v>
       </c>
-      <c r="K80" s="22" t="s">
+      <c r="L80" s="21" t="s">
         <v>316</v>
       </c>
-      <c r="L80" s="21" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" ht="158.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:12" ht="169.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="12" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C81" s="16"/>
       <c r="D81" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F81" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G81" s="16" t="s">
         <v>124</v>
@@ -5414,31 +5414,31 @@
       </c>
       <c r="I81" s="18"/>
       <c r="J81" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="K81" s="22" t="s">
         <v>318</v>
       </c>
-      <c r="K81" s="22" t="s">
+      <c r="L81" s="21" t="s">
         <v>319</v>
-      </c>
-      <c r="L81" s="21" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C82" s="16"/>
       <c r="D82" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F82" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G82" s="16" t="s">
         <v>124</v>
@@ -5448,31 +5448,31 @@
       </c>
       <c r="I82" s="18"/>
       <c r="J82" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="K82" s="22" t="s">
         <v>321</v>
       </c>
-      <c r="K82" s="22" t="s">
+      <c r="L82" s="21" t="s">
         <v>322</v>
-      </c>
-      <c r="L82" s="21" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="327" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="12" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C83" s="16"/>
       <c r="D83" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F83" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G83" s="16" t="s">
         <v>124</v>
@@ -5482,31 +5482,31 @@
       </c>
       <c r="I83" s="18"/>
       <c r="J83" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="K83" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="K83" s="23" t="s">
+      <c r="L83" s="21" t="s">
         <v>325</v>
-      </c>
-      <c r="L83" s="21" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="158.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="12" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C84" s="16"/>
       <c r="D84" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F84" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G84" s="16" t="s">
         <v>124</v>
@@ -5516,31 +5516,31 @@
       </c>
       <c r="I84" s="18"/>
       <c r="J84" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="K84" s="22" t="s">
         <v>327</v>
       </c>
-      <c r="K84" s="22" t="s">
+      <c r="L84" s="21" t="s">
         <v>328</v>
-      </c>
-      <c r="L84" s="21" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="12" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C85" s="16"/>
       <c r="D85" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F85" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G85" s="16" t="s">
         <v>124</v>
@@ -5550,31 +5550,31 @@
       </c>
       <c r="I85" s="18"/>
       <c r="J85" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="K85" s="22" t="s">
         <v>330</v>
       </c>
-      <c r="K85" s="22" t="s">
+      <c r="L85" s="21" t="s">
         <v>331</v>
       </c>
-      <c r="L85" s="21" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:12" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="12" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C86" s="16"/>
       <c r="D86" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F86" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G86" s="16" t="s">
         <v>124</v>
@@ -5584,31 +5584,31 @@
       </c>
       <c r="I86" s="18"/>
       <c r="J86" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="K86" s="22" t="s">
         <v>333</v>
       </c>
-      <c r="K86" s="22" t="s">
+      <c r="L86" s="21" t="s">
         <v>334</v>
-      </c>
-      <c r="L86" s="21" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="203.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="12" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C87" s="16"/>
       <c r="D87" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F87" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G87" s="16" t="s">
         <v>124</v>
@@ -5618,31 +5618,31 @@
       </c>
       <c r="I87" s="18"/>
       <c r="J87" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="K87" s="22" t="s">
         <v>336</v>
       </c>
-      <c r="K87" s="22" t="s">
+      <c r="L87" s="21" t="s">
         <v>337</v>
-      </c>
-      <c r="L87" s="21" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="12" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C88" s="16"/>
       <c r="D88" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F88" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G88" s="16" t="s">
         <v>124</v>
@@ -5652,31 +5652,31 @@
       </c>
       <c r="I88" s="18"/>
       <c r="J88" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="K88" s="22" t="s">
         <v>339</v>
       </c>
-      <c r="K88" s="22" t="s">
+      <c r="L88" s="21" t="s">
         <v>340</v>
-      </c>
-      <c r="L88" s="21" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="12" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C89" s="16"/>
       <c r="D89" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F89" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G89" s="16" t="s">
         <v>124</v>
@@ -5686,10 +5686,10 @@
       </c>
       <c r="I89" s="18"/>
       <c r="J89" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="K89" s="22" t="s">
         <v>342</v>
-      </c>
-      <c r="K89" s="22" t="s">
-        <v>343</v>
       </c>
       <c r="L89" s="21" t="s">
         <v>257</v>
@@ -5697,20 +5697,20 @@
     </row>
     <row r="90" spans="1:12" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="12" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C90" s="16"/>
       <c r="D90" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F90" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G90" s="16" t="s">
         <v>124</v>
@@ -5720,31 +5720,31 @@
       </c>
       <c r="I90" s="18"/>
       <c r="J90" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="K90" s="22" t="s">
         <v>344</v>
       </c>
-      <c r="K90" s="22" t="s">
+      <c r="L90" s="21" t="s">
         <v>345</v>
-      </c>
-      <c r="L90" s="21" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="12" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C91" s="16"/>
       <c r="D91" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F91" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G91" s="16" t="s">
         <v>124</v>
@@ -5754,31 +5754,31 @@
       </c>
       <c r="I91" s="18"/>
       <c r="J91" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="K91" s="22" t="s">
         <v>347</v>
       </c>
-      <c r="K91" s="22" t="s">
+      <c r="L91" s="21" t="s">
         <v>348</v>
-      </c>
-      <c r="L91" s="21" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="147" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="12" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C92" s="16"/>
       <c r="D92" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F92" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G92" s="16" t="s">
         <v>124</v>
@@ -5788,31 +5788,31 @@
       </c>
       <c r="I92" s="18"/>
       <c r="J92" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="K92" s="22" t="s">
         <v>350</v>
       </c>
-      <c r="K92" s="22" t="s">
+      <c r="L92" s="21" t="s">
         <v>351</v>
-      </c>
-      <c r="L92" s="21" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="12" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C93" s="16"/>
       <c r="D93" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F93" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G93" s="16" t="s">
         <v>124</v>
@@ -5822,31 +5822,31 @@
       </c>
       <c r="I93" s="18"/>
       <c r="J93" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="K93" s="22" t="s">
         <v>353</v>
       </c>
-      <c r="K93" s="22" t="s">
+      <c r="L93" s="21" t="s">
         <v>354</v>
-      </c>
-      <c r="L93" s="21" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="12" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C94" s="16"/>
       <c r="D94" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F94" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G94" s="16" t="s">
         <v>124</v>
@@ -5856,31 +5856,31 @@
       </c>
       <c r="I94" s="18"/>
       <c r="J94" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="K94" s="22" t="s">
         <v>356</v>
       </c>
-      <c r="K94" s="22" t="s">
+      <c r="L94" s="21" t="s">
         <v>357</v>
-      </c>
-      <c r="L94" s="21" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="12" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C95" s="16"/>
       <c r="D95" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F95" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G95" s="16" t="s">
         <v>124</v>
@@ -5890,31 +5890,31 @@
       </c>
       <c r="I95" s="18"/>
       <c r="J95" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="K95" s="22" t="s">
         <v>359</v>
       </c>
-      <c r="K95" s="22" t="s">
+      <c r="L95" s="24" t="s">
         <v>360</v>
-      </c>
-      <c r="L95" s="24" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="12" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C96" s="16"/>
       <c r="D96" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F96" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G96" s="16" t="s">
         <v>124</v>
@@ -5924,31 +5924,31 @@
       </c>
       <c r="I96" s="18"/>
       <c r="J96" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="K96" s="22" t="s">
         <v>362</v>
       </c>
-      <c r="K96" s="22" t="s">
+      <c r="L96" s="21" t="s">
         <v>363</v>
-      </c>
-      <c r="L96" s="21" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C97" s="16"/>
       <c r="D97" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F97" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G97" s="16" t="s">
         <v>124</v>
@@ -5958,31 +5958,31 @@
       </c>
       <c r="I97" s="18"/>
       <c r="J97" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="K97" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="K97" s="22" t="s">
-        <v>366</v>
-      </c>
       <c r="L97" s="21" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="259.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="12" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C98" s="16"/>
       <c r="D98" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F98" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G98" s="16" t="s">
         <v>124</v>
@@ -5992,31 +5992,31 @@
       </c>
       <c r="I98" s="18"/>
       <c r="J98" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="K98" s="23" t="s">
         <v>367</v>
       </c>
-      <c r="K98" s="23" t="s">
+      <c r="L98" s="21" t="s">
         <v>368</v>
-      </c>
-      <c r="L98" s="21" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="12" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B99" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C99" s="16"/>
       <c r="D99" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F99" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G99" s="16" t="s">
         <v>124</v>
@@ -6026,31 +6026,31 @@
       </c>
       <c r="I99" s="18"/>
       <c r="J99" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="K99" s="22" t="s">
         <v>370</v>
       </c>
-      <c r="K99" s="22" t="s">
+      <c r="L99" s="21" t="s">
         <v>371</v>
-      </c>
-      <c r="L99" s="21" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B100" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C100" s="16"/>
       <c r="D100" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F100" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G100" s="16" t="s">
         <v>124</v>
@@ -6060,31 +6060,31 @@
       </c>
       <c r="I100" s="18"/>
       <c r="J100" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="K100" s="22" t="s">
         <v>373</v>
       </c>
-      <c r="K100" s="22" t="s">
+      <c r="L100" s="21" t="s">
         <v>374</v>
-      </c>
-      <c r="L100" s="21" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="12" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B101" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C101" s="16"/>
       <c r="D101" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F101" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G101" s="16" t="s">
         <v>124</v>
@@ -6094,31 +6094,31 @@
       </c>
       <c r="I101" s="18"/>
       <c r="J101" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="K101" s="22" t="s">
         <v>376</v>
       </c>
-      <c r="K101" s="22" t="s">
+      <c r="L101" s="21" t="s">
         <v>377</v>
-      </c>
-      <c r="L101" s="21" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="12" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B102" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C102" s="16"/>
       <c r="D102" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F102" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G102" s="16" t="s">
         <v>124</v>
@@ -6128,31 +6128,31 @@
       </c>
       <c r="I102" s="18"/>
       <c r="J102" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="K102" s="22" t="s">
         <v>379</v>
       </c>
-      <c r="K102" s="22" t="s">
+      <c r="L102" s="21" t="s">
         <v>380</v>
-      </c>
-      <c r="L102" s="21" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="12" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C103" s="16"/>
       <c r="D103" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F103" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G103" s="16" t="s">
         <v>124</v>
@@ -6162,29 +6162,29 @@
       </c>
       <c r="I103" s="18"/>
       <c r="J103" s="21" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K103" s="21" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="L103" s="21"/>
     </row>
     <row r="104" spans="1:12" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="12" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B104" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C104" s="16"/>
       <c r="D104" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F104" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G104" s="16" t="s">
         <v>124</v>
@@ -6194,31 +6194,31 @@
       </c>
       <c r="I104" s="18"/>
       <c r="J104" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="K104" s="22" t="s">
         <v>383</v>
       </c>
-      <c r="K104" s="22" t="s">
+      <c r="L104" s="21" t="s">
         <v>384</v>
-      </c>
-      <c r="L104" s="21" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="203.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="12" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C105" s="16"/>
       <c r="D105" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F105" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G105" s="16" t="s">
         <v>124</v>
@@ -6228,31 +6228,31 @@
       </c>
       <c r="I105" s="18"/>
       <c r="J105" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="K105" s="22" t="s">
         <v>386</v>
       </c>
-      <c r="K105" s="22" t="s">
+      <c r="L105" s="21" t="s">
         <v>387</v>
-      </c>
-      <c r="L105" s="21" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B106" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C106" s="16"/>
       <c r="D106" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F106" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G106" s="16" t="s">
         <v>124</v>
@@ -6262,31 +6262,31 @@
       </c>
       <c r="I106" s="18"/>
       <c r="J106" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="K106" s="22" t="s">
         <v>389</v>
       </c>
-      <c r="K106" s="22" t="s">
+      <c r="L106" s="21" t="s">
         <v>390</v>
-      </c>
-      <c r="L106" s="21" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="107" spans="1:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="12" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B107" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C107" s="16"/>
       <c r="D107" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F107" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G107" s="16" t="s">
         <v>124</v>
@@ -6296,10 +6296,10 @@
       </c>
       <c r="I107" s="18"/>
       <c r="J107" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="K107" s="22" t="s">
         <v>392</v>
-      </c>
-      <c r="K107" s="22" t="s">
-        <v>393</v>
       </c>
       <c r="L107" s="21" t="s">
         <v>44</v>
@@ -6307,20 +6307,20 @@
     </row>
     <row r="108" spans="1:12" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="12" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B108" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C108" s="16"/>
       <c r="D108" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F108" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G108" s="16" t="s">
         <v>124</v>
@@ -6330,31 +6330,31 @@
       </c>
       <c r="I108" s="18"/>
       <c r="J108" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="K108" s="22" t="s">
         <v>394</v>
       </c>
-      <c r="K108" s="22" t="s">
+      <c r="L108" s="21" t="s">
         <v>395</v>
-      </c>
-      <c r="L108" s="21" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="12" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B109" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C109" s="16"/>
       <c r="D109" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F109" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G109" s="16" t="s">
         <v>124</v>
@@ -6364,31 +6364,31 @@
       </c>
       <c r="I109" s="18"/>
       <c r="J109" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="K109" s="22" t="s">
         <v>397</v>
       </c>
-      <c r="K109" s="22" t="s">
+      <c r="L109" s="21" t="s">
         <v>398</v>
-      </c>
-      <c r="L109" s="21" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="110" spans="1:12" ht="124.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="25" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B110" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C110" s="16"/>
       <c r="D110" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F110" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G110" s="16" t="s">
         <v>124</v>
@@ -6398,31 +6398,31 @@
       </c>
       <c r="I110" s="18"/>
       <c r="J110" s="21" t="s">
+        <v>399</v>
+      </c>
+      <c r="K110" s="22" t="s">
         <v>400</v>
       </c>
-      <c r="K110" s="22" t="s">
+      <c r="L110" s="21" t="s">
         <v>401</v>
-      </c>
-      <c r="L110" s="21" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="25" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C111" s="16"/>
       <c r="D111" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F111" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G111" s="16" t="s">
         <v>124</v>
@@ -6432,31 +6432,31 @@
       </c>
       <c r="I111" s="18"/>
       <c r="J111" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="K111" s="22" t="s">
         <v>403</v>
       </c>
-      <c r="K111" s="22" t="s">
+      <c r="L111" s="21" t="s">
         <v>404</v>
-      </c>
-      <c r="L111" s="21" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="25" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C112" s="16"/>
       <c r="D112" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F112" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G112" s="16" t="s">
         <v>124</v>
@@ -6466,31 +6466,31 @@
       </c>
       <c r="I112" s="18"/>
       <c r="J112" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="K112" s="22" t="s">
         <v>406</v>
       </c>
-      <c r="K112" s="22" t="s">
+      <c r="L112" s="21" t="s">
         <v>407</v>
-      </c>
-      <c r="L112" s="21" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="25" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C113" s="16"/>
       <c r="D113" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F113" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G113" s="16" t="s">
         <v>124</v>
@@ -6500,31 +6500,31 @@
       </c>
       <c r="I113" s="18"/>
       <c r="J113" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="K113" s="22" t="s">
         <v>409</v>
       </c>
-      <c r="K113" s="22" t="s">
+      <c r="L113" s="21" t="s">
         <v>410</v>
-      </c>
-      <c r="L113" s="21" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="114" spans="1:12" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="25" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C114" s="16"/>
       <c r="D114" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F114" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G114" s="16" t="s">
         <v>124</v>
@@ -6534,31 +6534,31 @@
       </c>
       <c r="I114" s="18"/>
       <c r="J114" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="K114" s="22" t="s">
         <v>412</v>
       </c>
-      <c r="K114" s="22" t="s">
+      <c r="L114" s="21" t="s">
         <v>413</v>
-      </c>
-      <c r="L114" s="21" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="25" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C115" s="16"/>
       <c r="D115" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F115" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G115" s="16" t="s">
         <v>124</v>
@@ -6568,31 +6568,31 @@
       </c>
       <c r="I115" s="18"/>
       <c r="J115" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="K115" s="22" t="s">
         <v>415</v>
       </c>
-      <c r="K115" s="22" t="s">
+      <c r="L115" s="21" t="s">
         <v>416</v>
-      </c>
-      <c r="L115" s="21" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="116" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="25" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C116" s="16"/>
       <c r="D116" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F116" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G116" s="16" t="s">
         <v>124</v>
@@ -6602,10 +6602,10 @@
       </c>
       <c r="I116" s="18"/>
       <c r="J116" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="K116" s="23" t="s">
         <v>418</v>
-      </c>
-      <c r="K116" s="23" t="s">
-        <v>419</v>
       </c>
       <c r="L116" s="21" t="s">
         <v>44</v>
@@ -6613,20 +6613,20 @@
     </row>
     <row r="117" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="25" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B117" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C117" s="16"/>
       <c r="D117" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F117" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G117" s="16" t="s">
         <v>124</v>
@@ -6636,31 +6636,31 @@
       </c>
       <c r="I117" s="18"/>
       <c r="J117" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="K117" s="22" t="s">
         <v>420</v>
       </c>
-      <c r="K117" s="22" t="s">
-        <v>421</v>
-      </c>
       <c r="L117" s="21" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="118" spans="1:12" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="25" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B118" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C118" s="16"/>
       <c r="D118" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F118" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G118" s="16" t="s">
         <v>124</v>
@@ -6670,31 +6670,31 @@
       </c>
       <c r="I118" s="18"/>
       <c r="J118" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="K118" s="22" t="s">
         <v>422</v>
       </c>
-      <c r="K118" s="22" t="s">
+      <c r="L118" s="21" t="s">
         <v>423</v>
-      </c>
-      <c r="L118" s="21" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="119" spans="1:12" ht="169.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B119" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C119" s="16"/>
       <c r="D119" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F119" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G119" s="16" t="s">
         <v>124</v>
@@ -6704,31 +6704,31 @@
       </c>
       <c r="I119" s="18"/>
       <c r="J119" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="K119" s="22" t="s">
         <v>425</v>
       </c>
-      <c r="K119" s="22" t="s">
+      <c r="L119" s="21" t="s">
         <v>426</v>
-      </c>
-      <c r="L119" s="21" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="120" spans="1:12" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="25" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B120" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C120" s="16"/>
       <c r="D120" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F120" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G120" s="16" t="s">
         <v>124</v>
@@ -6738,31 +6738,31 @@
       </c>
       <c r="I120" s="18"/>
       <c r="J120" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="K120" s="21" t="s">
         <v>428</v>
       </c>
-      <c r="K120" s="21" t="s">
+      <c r="L120" s="21" t="s">
         <v>429</v>
-      </c>
-      <c r="L120" s="21" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="25" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B121" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C121" s="16"/>
       <c r="D121" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F121" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G121" s="16" t="s">
         <v>124</v>
@@ -6772,31 +6772,31 @@
       </c>
       <c r="I121" s="18"/>
       <c r="J121" s="21" t="s">
+        <v>430</v>
+      </c>
+      <c r="K121" s="22" t="s">
         <v>431</v>
       </c>
-      <c r="K121" s="22" t="s">
+      <c r="L121" s="21" t="s">
         <v>432</v>
-      </c>
-      <c r="L121" s="21" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="122" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="25" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B122" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C122" s="16"/>
       <c r="D122" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F122" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G122" s="16" t="s">
         <v>124</v>
@@ -6806,31 +6806,31 @@
       </c>
       <c r="I122" s="18"/>
       <c r="J122" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="K122" s="22" t="s">
         <v>434</v>
       </c>
-      <c r="K122" s="22" t="s">
+      <c r="L122" s="21" t="s">
         <v>435</v>
-      </c>
-      <c r="L122" s="21" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="25" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B123" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C123" s="16"/>
       <c r="D123" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F123" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G123" s="16" t="s">
         <v>124</v>
@@ -6840,31 +6840,31 @@
       </c>
       <c r="I123" s="18"/>
       <c r="J123" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="K123" s="22" t="s">
         <v>437</v>
       </c>
-      <c r="K123" s="22" t="s">
+      <c r="L123" s="21" t="s">
         <v>438</v>
-      </c>
-      <c r="L123" s="21" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="124" spans="1:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="25" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B124" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C124" s="16"/>
       <c r="D124" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F124" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G124" s="16" t="s">
         <v>124</v>
@@ -6874,31 +6874,31 @@
       </c>
       <c r="I124" s="18"/>
       <c r="J124" s="26" t="s">
+        <v>495</v>
+      </c>
+      <c r="K124" s="20" t="s">
         <v>496</v>
       </c>
-      <c r="K124" s="20" t="s">
+      <c r="L124" s="19" t="s">
         <v>497</v>
-      </c>
-      <c r="L124" s="19" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="125" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="25" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B125" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C125" s="16"/>
       <c r="D125" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F125" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G125" s="16" t="s">
         <v>124</v>
@@ -6908,31 +6908,31 @@
       </c>
       <c r="I125" s="18"/>
       <c r="J125" s="27" t="s">
+        <v>498</v>
+      </c>
+      <c r="K125" s="22" t="s">
         <v>499</v>
       </c>
-      <c r="K125" s="22" t="s">
-        <v>500</v>
-      </c>
       <c r="L125" s="21" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="126" spans="1:12" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="25" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B126" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C126" s="16"/>
       <c r="D126" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F126" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G126" s="16" t="s">
         <v>124</v>
@@ -6942,31 +6942,31 @@
       </c>
       <c r="I126" s="18"/>
       <c r="J126" s="27" t="s">
+        <v>500</v>
+      </c>
+      <c r="K126" s="22" t="s">
         <v>501</v>
       </c>
-      <c r="K126" s="22" t="s">
+      <c r="L126" s="28" t="s">
         <v>502</v>
-      </c>
-      <c r="L126" s="28" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="127" spans="1:12" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="25" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C127" s="16"/>
       <c r="D127" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F127" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G127" s="16" t="s">
         <v>124</v>
@@ -6976,31 +6976,31 @@
       </c>
       <c r="I127" s="18"/>
       <c r="J127" s="27" t="s">
+        <v>503</v>
+      </c>
+      <c r="K127" s="22" t="s">
         <v>504</v>
       </c>
-      <c r="K127" s="22" t="s">
+      <c r="L127" s="21" t="s">
         <v>505</v>
-      </c>
-      <c r="L127" s="21" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="128" spans="1:12" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="25" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C128" s="16"/>
       <c r="D128" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F128" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G128" s="16" t="s">
         <v>124</v>
@@ -7010,31 +7010,31 @@
       </c>
       <c r="I128" s="18"/>
       <c r="J128" s="27" t="s">
+        <v>506</v>
+      </c>
+      <c r="K128" s="22" t="s">
         <v>507</v>
       </c>
-      <c r="K128" s="22" t="s">
+      <c r="L128" s="28" t="s">
         <v>508</v>
-      </c>
-      <c r="L128" s="28" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="129" spans="1:12" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="25" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B129" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C129" s="16"/>
       <c r="D129" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F129" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G129" s="16" t="s">
         <v>124</v>
@@ -7044,31 +7044,31 @@
       </c>
       <c r="I129" s="18"/>
       <c r="J129" s="27" t="s">
+        <v>509</v>
+      </c>
+      <c r="K129" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="K129" s="22" t="s">
+      <c r="L129" s="21" t="s">
         <v>511</v>
-      </c>
-      <c r="L129" s="21" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="130" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="25" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B130" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C130" s="16"/>
       <c r="D130" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F130" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G130" s="16" t="s">
         <v>124</v>
@@ -7078,31 +7078,31 @@
       </c>
       <c r="I130" s="18"/>
       <c r="J130" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="K130" s="22" t="s">
         <v>513</v>
       </c>
-      <c r="K130" s="22" t="s">
+      <c r="L130" s="21" t="s">
         <v>514</v>
-      </c>
-      <c r="L130" s="21" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="131" spans="1:12" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="25" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B131" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C131" s="16"/>
       <c r="D131" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F131" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G131" s="16" t="s">
         <v>124</v>
@@ -7112,31 +7112,31 @@
       </c>
       <c r="I131" s="18"/>
       <c r="J131" s="27" t="s">
+        <v>515</v>
+      </c>
+      <c r="K131" s="22" t="s">
         <v>516</v>
       </c>
-      <c r="K131" s="22" t="s">
+      <c r="L131" s="28" t="s">
         <v>517</v>
-      </c>
-      <c r="L131" s="28" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="132" spans="1:12" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="25" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B132" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C132" s="16"/>
       <c r="D132" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F132" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G132" s="16" t="s">
         <v>124</v>
@@ -7146,31 +7146,31 @@
       </c>
       <c r="I132" s="18"/>
       <c r="J132" s="27" t="s">
+        <v>518</v>
+      </c>
+      <c r="K132" s="22" t="s">
         <v>519</v>
       </c>
-      <c r="K132" s="22" t="s">
+      <c r="L132" s="28" t="s">
         <v>520</v>
-      </c>
-      <c r="L132" s="28" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="133" spans="1:12" ht="158.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="25" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B133" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C133" s="16"/>
       <c r="D133" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F133" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G133" s="16" t="s">
         <v>124</v>
@@ -7180,31 +7180,31 @@
       </c>
       <c r="I133" s="18"/>
       <c r="J133" s="27" t="s">
+        <v>521</v>
+      </c>
+      <c r="K133" s="22" t="s">
         <v>522</v>
       </c>
-      <c r="K133" s="22" t="s">
+      <c r="L133" s="28" t="s">
         <v>523</v>
-      </c>
-      <c r="L133" s="28" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="134" spans="1:12" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="25" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B134" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C134" s="16"/>
       <c r="D134" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F134" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G134" s="16" t="s">
         <v>124</v>
@@ -7214,31 +7214,31 @@
       </c>
       <c r="I134" s="18"/>
       <c r="J134" s="27" t="s">
+        <v>524</v>
+      </c>
+      <c r="K134" s="22" t="s">
         <v>525</v>
       </c>
-      <c r="K134" s="22" t="s">
+      <c r="L134" s="28" t="s">
         <v>526</v>
-      </c>
-      <c r="L134" s="28" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="135" spans="1:12" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="25" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B135" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C135" s="16"/>
       <c r="D135" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F135" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G135" s="16" t="s">
         <v>124</v>
@@ -7248,31 +7248,31 @@
       </c>
       <c r="I135" s="18"/>
       <c r="J135" s="27" t="s">
+        <v>527</v>
+      </c>
+      <c r="K135" s="22" t="s">
         <v>528</v>
       </c>
-      <c r="K135" s="22" t="s">
+      <c r="L135" s="21" t="s">
         <v>529</v>
-      </c>
-      <c r="L135" s="21" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="136" spans="1:12" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="25" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B136" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C136" s="16"/>
       <c r="D136" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F136" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G136" s="16" t="s">
         <v>124</v>
@@ -7282,31 +7282,31 @@
       </c>
       <c r="I136" s="18"/>
       <c r="J136" s="27" t="s">
+        <v>530</v>
+      </c>
+      <c r="K136" s="22" t="s">
         <v>531</v>
       </c>
-      <c r="K136" s="22" t="s">
+      <c r="L136" s="28" t="s">
         <v>532</v>
-      </c>
-      <c r="L136" s="28" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="137" spans="1:12" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="25" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B137" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C137" s="16"/>
       <c r="D137" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F137" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G137" s="16" t="s">
         <v>124</v>
@@ -7316,31 +7316,31 @@
       </c>
       <c r="I137" s="18"/>
       <c r="J137" s="27" t="s">
+        <v>533</v>
+      </c>
+      <c r="K137" s="22" t="s">
         <v>534</v>
       </c>
-      <c r="K137" s="22" t="s">
+      <c r="L137" s="21" t="s">
         <v>535</v>
-      </c>
-      <c r="L137" s="21" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="138" spans="1:12" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="25" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B138" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C138" s="16"/>
       <c r="D138" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F138" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G138" s="16" t="s">
         <v>124</v>
@@ -7350,31 +7350,31 @@
       </c>
       <c r="I138" s="18"/>
       <c r="J138" s="27" t="s">
+        <v>536</v>
+      </c>
+      <c r="K138" s="22" t="s">
         <v>537</v>
       </c>
-      <c r="K138" s="22" t="s">
+      <c r="L138" s="28" t="s">
         <v>538</v>
-      </c>
-      <c r="L138" s="28" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="139" spans="1:12" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="25" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B139" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C139" s="16"/>
       <c r="D139" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F139" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G139" s="16" t="s">
         <v>124</v>
@@ -7384,31 +7384,31 @@
       </c>
       <c r="I139" s="18"/>
       <c r="J139" s="27" t="s">
+        <v>539</v>
+      </c>
+      <c r="K139" s="22" t="s">
         <v>540</v>
       </c>
-      <c r="K139" s="22" t="s">
+      <c r="L139" s="28" t="s">
         <v>541</v>
       </c>
-      <c r="L139" s="28" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:12" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="25" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B140" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C140" s="16"/>
       <c r="D140" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F140" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G140" s="16" t="s">
         <v>124</v>
@@ -7418,31 +7418,31 @@
       </c>
       <c r="I140" s="18"/>
       <c r="J140" s="27" t="s">
+        <v>542</v>
+      </c>
+      <c r="K140" s="23" t="s">
         <v>543</v>
       </c>
-      <c r="K140" s="23" t="s">
+      <c r="L140" s="28" t="s">
         <v>544</v>
-      </c>
-      <c r="L140" s="28" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="141" spans="1:12" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="25" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B141" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C141" s="16"/>
       <c r="D141" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F141" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G141" s="16" t="s">
         <v>124</v>
@@ -7452,31 +7452,31 @@
       </c>
       <c r="I141" s="18"/>
       <c r="J141" s="27" t="s">
+        <v>545</v>
+      </c>
+      <c r="K141" s="22" t="s">
         <v>546</v>
       </c>
-      <c r="K141" s="22" t="s">
+      <c r="L141" s="28" t="s">
         <v>547</v>
-      </c>
-      <c r="L141" s="28" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="142" spans="1:12" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="25" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B142" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C142" s="16"/>
       <c r="D142" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F142" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G142" s="16" t="s">
         <v>124</v>
@@ -7486,31 +7486,31 @@
       </c>
       <c r="I142" s="18"/>
       <c r="J142" s="27" t="s">
+        <v>548</v>
+      </c>
+      <c r="K142" s="22" t="s">
         <v>549</v>
       </c>
-      <c r="K142" s="22" t="s">
+      <c r="L142" s="21" t="s">
         <v>550</v>
-      </c>
-      <c r="L142" s="21" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="143" spans="1:12" ht="147" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="25" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B143" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C143" s="16"/>
       <c r="D143" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F143" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G143" s="16" t="s">
         <v>124</v>
@@ -7520,31 +7520,31 @@
       </c>
       <c r="I143" s="18"/>
       <c r="J143" s="27" t="s">
+        <v>551</v>
+      </c>
+      <c r="K143" s="22" t="s">
         <v>552</v>
       </c>
-      <c r="K143" s="22" t="s">
+      <c r="L143" s="28" t="s">
         <v>553</v>
-      </c>
-      <c r="L143" s="28" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="144" spans="1:12" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="25" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B144" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C144" s="16"/>
       <c r="D144" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F144" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G144" s="16" t="s">
         <v>124</v>
@@ -7554,31 +7554,31 @@
       </c>
       <c r="I144" s="18"/>
       <c r="J144" s="27" t="s">
+        <v>554</v>
+      </c>
+      <c r="K144" s="22" t="s">
         <v>555</v>
       </c>
-      <c r="K144" s="22" t="s">
+      <c r="L144" s="21" t="s">
         <v>556</v>
-      </c>
-      <c r="L144" s="21" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="145" spans="1:12" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="25" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B145" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C145" s="16"/>
       <c r="D145" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F145" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G145" s="16" t="s">
         <v>124</v>
@@ -7588,10 +7588,10 @@
       </c>
       <c r="I145" s="18"/>
       <c r="J145" s="27" t="s">
+        <v>557</v>
+      </c>
+      <c r="K145" s="22" t="s">
         <v>558</v>
-      </c>
-      <c r="K145" s="22" t="s">
-        <v>559</v>
       </c>
       <c r="L145" s="21" t="s">
         <v>44</v>
@@ -7599,20 +7599,20 @@
     </row>
     <row r="146" spans="1:12" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="25" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B146" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C146" s="16"/>
       <c r="D146" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F146" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G146" s="16" t="s">
         <v>124</v>
@@ -7622,13 +7622,13 @@
       </c>
       <c r="I146" s="18"/>
       <c r="J146" s="27" t="s">
+        <v>559</v>
+      </c>
+      <c r="K146" s="29" t="s">
         <v>560</v>
       </c>
-      <c r="K146" s="29" t="s">
+      <c r="L146" s="28" t="s">
         <v>561</v>
-      </c>
-      <c r="L146" s="28" t="s">
-        <v>562</v>
       </c>
     </row>
   </sheetData>
